--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -390,8 +390,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -410,10 +410,10 @@
         <v>45698</v>
       </c>
       <c r="B2">
-        <v>24.86879146140541</v>
+        <v>14.8967518172804</v>
       </c>
       <c r="C2">
-        <v>56.48141582883802</v>
+        <v>98.86037952175701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -421,10 +421,10 @@
         <v>45698.00069444445</v>
       </c>
       <c r="B3">
-        <v>12.60058217225176</v>
+        <v>12.44712490332475</v>
       </c>
       <c r="C3">
-        <v>119.9388566083623</v>
+        <v>84.38861340350226</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,10 +432,10 @@
         <v>45698.00138888889</v>
       </c>
       <c r="B4">
-        <v>27.02428835180018</v>
+        <v>14.4482206727562</v>
       </c>
       <c r="C4">
-        <v>66.6894750898208</v>
+        <v>92.09190541774254</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -443,10 +443,10 @@
         <v>45698.00208333333</v>
       </c>
       <c r="B5">
-        <v>17.13149461539079</v>
+        <v>24.18770203096351</v>
       </c>
       <c r="C5">
-        <v>93.90299129753143</v>
+        <v>98.17340646300016</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,10 +454,10 @@
         <v>45698.00277777778</v>
       </c>
       <c r="B6">
-        <v>23.87781938888368</v>
+        <v>14.98122852926548</v>
       </c>
       <c r="C6">
-        <v>127.6815752134395</v>
+        <v>71.18570779821437</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -465,10 +465,10 @@
         <v>45698.00347222222</v>
       </c>
       <c r="B7">
-        <v>19.67791811927126</v>
+        <v>16.91241939147755</v>
       </c>
       <c r="C7">
-        <v>99.29102500789084</v>
+        <v>94.16404228268392</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -476,10 +476,10 @@
         <v>45698.00416666667</v>
       </c>
       <c r="B8">
-        <v>23.26489450977175</v>
+        <v>19.26271486860858</v>
       </c>
       <c r="C8">
-        <v>91.37439551300164</v>
+        <v>93.63261448661925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -487,10 +487,10 @@
         <v>45698.00486111111</v>
       </c>
       <c r="B9">
-        <v>16.6294231617414</v>
+        <v>15.18261662450432</v>
       </c>
       <c r="C9">
-        <v>92.0450025007963</v>
+        <v>107.7206697902965</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -498,10 +498,10 @@
         <v>45698.00555555556</v>
       </c>
       <c r="B10">
-        <v>21.64809623606842</v>
+        <v>24.35034818476903</v>
       </c>
       <c r="C10">
-        <v>94.41556815621077</v>
+        <v>123.6020743240838</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -509,10 +509,10 @@
         <v>45698.00625</v>
       </c>
       <c r="B11">
-        <v>15.10875677869585</v>
+        <v>22.66896802996012</v>
       </c>
       <c r="C11">
-        <v>120.9115519551926</v>
+        <v>87.10934848984786</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -520,10 +520,10 @@
         <v>45698.00694444445</v>
       </c>
       <c r="B12">
-        <v>25.48053503902302</v>
+        <v>10.41634202016447</v>
       </c>
       <c r="C12">
-        <v>85.3074023275026</v>
+        <v>93.34575997153108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -531,10 +531,10 @@
         <v>45698.00763888889</v>
       </c>
       <c r="B13">
-        <v>14.06302050858325</v>
+        <v>20.74446263231571</v>
       </c>
       <c r="C13">
-        <v>91.52800854634884</v>
+        <v>92.38384988615432</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -542,10 +542,10 @@
         <v>45698.00833333333</v>
       </c>
       <c r="B14">
-        <v>23.05851327512114</v>
+        <v>18.68695883884957</v>
       </c>
       <c r="C14">
-        <v>91.77658921194683</v>
+        <v>134.1951024234776</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -553,10 +553,10 @@
         <v>45698.00902777778</v>
       </c>
       <c r="B15">
-        <v>20.75579279231505</v>
+        <v>16.82949472848577</v>
       </c>
       <c r="C15">
-        <v>101.3133934308216</v>
+        <v>90.54178581209453</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -564,10 +564,10 @@
         <v>45698.00972222222</v>
       </c>
       <c r="B16">
-        <v>17.07250356362692</v>
+        <v>19.81286471391581</v>
       </c>
       <c r="C16">
-        <v>71.40061427969849</v>
+        <v>120.2657581461134</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -575,10 +575,10 @@
         <v>45698.01041666666</v>
       </c>
       <c r="B17">
-        <v>30.52730521509249</v>
+        <v>14.42739670549144</v>
       </c>
       <c r="C17">
-        <v>88.86728510818224</v>
+        <v>96.84285877858804</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -586,10 +586,10 @@
         <v>45698.01111111111</v>
       </c>
       <c r="B18">
-        <v>16.71242951732108</v>
+        <v>17.16641788138129</v>
       </c>
       <c r="C18">
-        <v>98.12162475429172</v>
+        <v>128.9939156284099</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -597,10 +597,10 @@
         <v>45698.01180555556</v>
       </c>
       <c r="B19">
-        <v>19.50590527411638</v>
+        <v>21.60523063696653</v>
       </c>
       <c r="C19">
-        <v>125.0259952254837</v>
+        <v>102.9630641219267</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -608,10 +608,10 @@
         <v>45698.0125</v>
       </c>
       <c r="B20">
-        <v>17.62742952220405</v>
+        <v>19.32612270422538</v>
       </c>
       <c r="C20">
-        <v>126.2060779067381</v>
+        <v>132.1974507867375</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -619,10 +619,10 @@
         <v>45698.01319444444</v>
       </c>
       <c r="B21">
-        <v>21.45538963130491</v>
+        <v>28.9513951103034</v>
       </c>
       <c r="C21">
-        <v>114.7966307880909</v>
+        <v>99.12680448867623</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -630,10 +630,10 @@
         <v>45698.01388888889</v>
       </c>
       <c r="B22">
-        <v>18.81966683352927</v>
+        <v>21.98375760642464</v>
       </c>
       <c r="C22">
-        <v>104.7511186940389</v>
+        <v>119.3540658681022</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -641,10 +641,10 @@
         <v>45698.01458333333</v>
       </c>
       <c r="B23">
-        <v>22.21587079376886</v>
+        <v>25.90479561764079</v>
       </c>
       <c r="C23">
-        <v>105.2561520614635</v>
+        <v>145.1341368468404</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -652,10 +652,10 @@
         <v>45698.01527777778</v>
       </c>
       <c r="B24">
-        <v>24.84492426337873</v>
+        <v>19.10036737260595</v>
       </c>
       <c r="C24">
-        <v>94.86069784808893</v>
+        <v>124.5738512897046</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -663,10 +663,10 @@
         <v>45698.01597222222</v>
       </c>
       <c r="B25">
-        <v>16.60301346122864</v>
+        <v>10.10190123071226</v>
       </c>
       <c r="C25">
-        <v>89.86663413500797</v>
+        <v>111.2663626714431</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -674,10 +674,10 @@
         <v>45698.01666666667</v>
       </c>
       <c r="B26">
-        <v>17.50424341740041</v>
+        <v>18.70785580770954</v>
       </c>
       <c r="C26">
-        <v>145.5161050637532</v>
+        <v>130.7736313730308</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -685,10 +685,10 @@
         <v>45698.01736111111</v>
       </c>
       <c r="B27">
-        <v>27.85964437266481</v>
+        <v>14.47109963597905</v>
       </c>
       <c r="C27">
-        <v>99.31446458423243</v>
+        <v>100.4662010057663</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -696,10 +696,10 @@
         <v>45698.01805555556</v>
       </c>
       <c r="B28">
-        <v>13.6302636941781</v>
+        <v>29.71834794414187</v>
       </c>
       <c r="C28">
-        <v>98.40384852957418</v>
+        <v>89.87522789991849</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -707,10 +707,10 @@
         <v>45698.01875</v>
       </c>
       <c r="B29">
-        <v>27.07472012745159</v>
+        <v>21.90953085584905</v>
       </c>
       <c r="C29">
-        <v>116.078376417351</v>
+        <v>90.53935651465611</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -718,10 +718,10 @@
         <v>45698.01944444444</v>
       </c>
       <c r="B30">
-        <v>20.06411497279993</v>
+        <v>22.11214610898566</v>
       </c>
       <c r="C30">
-        <v>100.182930992397</v>
+        <v>150.3471153132572</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -729,10 +729,10 @@
         <v>45698.02013888889</v>
       </c>
       <c r="B31">
-        <v>13.66587389085188</v>
+        <v>18.98434800107934</v>
       </c>
       <c r="C31">
-        <v>112.6784051593669</v>
+        <v>120.4313075573144</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -740,10 +740,10 @@
         <v>45698.02083333334</v>
       </c>
       <c r="B32">
-        <v>23.25012212336385</v>
+        <v>20.85961991500082</v>
       </c>
       <c r="C32">
-        <v>77.33218677764629</v>
+        <v>68.08774531285522</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -751,10 +751,10 @@
         <v>45698.02152777778</v>
       </c>
       <c r="B33">
-        <v>22.67971606615876</v>
+        <v>21.56431316187235</v>
       </c>
       <c r="C33">
-        <v>85.20091972517812</v>
+        <v>67.84817013015558</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -762,10 +762,10 @@
         <v>45698.02222222222</v>
       </c>
       <c r="B34">
-        <v>26.01213782880674</v>
+        <v>17.69313062037499</v>
       </c>
       <c r="C34">
-        <v>120.4331217896702</v>
+        <v>91.09312648359735</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -773,10 +773,10 @@
         <v>45698.02291666667</v>
       </c>
       <c r="B35">
-        <v>13.71130774178252</v>
+        <v>20.24705097325404</v>
       </c>
       <c r="C35">
-        <v>81.56749008912088</v>
+        <v>86.11884061601087</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -784,10 +784,10 @@
         <v>45698.02361111111</v>
       </c>
       <c r="B36">
-        <v>22.03370097273172</v>
+        <v>15.32924286901579</v>
       </c>
       <c r="C36">
-        <v>94.86055420303234</v>
+        <v>121.9742870922826</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -795,10 +795,10 @@
         <v>45698.02430555555</v>
       </c>
       <c r="B37">
-        <v>13.05564465332207</v>
+        <v>25.43298223576977</v>
       </c>
       <c r="C37">
-        <v>143.1805879926312</v>
+        <v>91.9873052244714</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -806,10 +806,10 @@
         <v>45698.025</v>
       </c>
       <c r="B38">
-        <v>20.61550244192845</v>
+        <v>17.12592590874939</v>
       </c>
       <c r="C38">
-        <v>101.571803518475</v>
+        <v>68.34787859203547</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -817,10 +817,10 @@
         <v>45698.02569444444</v>
       </c>
       <c r="B39">
-        <v>20.97075765179903</v>
+        <v>9.657346884721616</v>
       </c>
       <c r="C39">
-        <v>88.14047703223116</v>
+        <v>45.29844396671051</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -828,10 +828,10 @@
         <v>45698.02638888889</v>
       </c>
       <c r="B40">
-        <v>11.8874623992973</v>
+        <v>19.31875634667352</v>
       </c>
       <c r="C40">
-        <v>78.63132870201437</v>
+        <v>56.56186101765398</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -839,10 +839,10 @@
         <v>45698.02708333333</v>
       </c>
       <c r="B41">
-        <v>18.14581024867631</v>
+        <v>23.67185133099692</v>
       </c>
       <c r="C41">
-        <v>115.5511680738622</v>
+        <v>111.6239291362955</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -850,10 +850,10 @@
         <v>45698.02777777778</v>
       </c>
       <c r="B42">
-        <v>21.44400227966571</v>
+        <v>12.38466607085255</v>
       </c>
       <c r="C42">
-        <v>80.14034016840967</v>
+        <v>98.3051167844784</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -861,10 +861,10 @@
         <v>45698.02847222222</v>
       </c>
       <c r="B43">
-        <v>24.25130763370749</v>
+        <v>22.67434212602656</v>
       </c>
       <c r="C43">
-        <v>102.3064890666842</v>
+        <v>123.6910139861533</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -872,10 +872,10 @@
         <v>45698.02916666667</v>
       </c>
       <c r="B44">
-        <v>15.65867979973335</v>
+        <v>17.55396048628759</v>
       </c>
       <c r="C44">
-        <v>93.49028372253596</v>
+        <v>104.2109723375425</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -883,10 +883,10 @@
         <v>45698.02986111111</v>
       </c>
       <c r="B45">
-        <v>19.42940093702532</v>
+        <v>21.16925038684456</v>
       </c>
       <c r="C45">
-        <v>106.9541274395274</v>
+        <v>100.0607641361108</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -894,10 +894,10 @@
         <v>45698.03055555555</v>
       </c>
       <c r="B46">
-        <v>20.15987060987146</v>
+        <v>24.89951703340871</v>
       </c>
       <c r="C46">
-        <v>76.38938675879776</v>
+        <v>107.3915427493642</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -905,10 +905,10 @@
         <v>45698.03125</v>
       </c>
       <c r="B47">
-        <v>24.49529233571054</v>
+        <v>16.5984397747037</v>
       </c>
       <c r="C47">
-        <v>120.4419606074855</v>
+        <v>109.0909717262669</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -916,10 +916,10 @@
         <v>45698.03194444445</v>
       </c>
       <c r="B48">
-        <v>22.90759309846287</v>
+        <v>15.66833815482555</v>
       </c>
       <c r="C48">
-        <v>108.2418080985494</v>
+        <v>82.72976570897659</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -927,10 +927,10 @@
         <v>45698.03263888889</v>
       </c>
       <c r="B49">
-        <v>18.29210836340554</v>
+        <v>29.4209135869425</v>
       </c>
       <c r="C49">
-        <v>105.7221551697488</v>
+        <v>103.4415002598585</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -938,10 +938,10 @@
         <v>45698.03333333333</v>
       </c>
       <c r="B50">
-        <v>20.14663963621815</v>
+        <v>13.60896533588832</v>
       </c>
       <c r="C50">
-        <v>80.16847387915007</v>
+        <v>99.75327005111969</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -949,10 +949,10 @@
         <v>45698.03402777778</v>
       </c>
       <c r="B51">
-        <v>13.18660843943904</v>
+        <v>18.35762104005119</v>
       </c>
       <c r="C51">
-        <v>91.9811227946971</v>
+        <v>96.83876392049852</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -960,10 +960,10 @@
         <v>45698.03472222222</v>
       </c>
       <c r="B52">
-        <v>9.680420969719892</v>
+        <v>17.29122620314665</v>
       </c>
       <c r="C52">
-        <v>81.92192727070176</v>
+        <v>112.6559197553122</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -971,10 +971,10 @@
         <v>45698.03541666667</v>
       </c>
       <c r="B53">
-        <v>26.85236379372086</v>
+        <v>14.78977174145351</v>
       </c>
       <c r="C53">
-        <v>101.4799406579633</v>
+        <v>119.8472423046021</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -982,10 +982,10 @@
         <v>45698.03611111111</v>
       </c>
       <c r="B54">
-        <v>25.8973186550253</v>
+        <v>18.42951222918717</v>
       </c>
       <c r="C54">
-        <v>101.7966535414314</v>
+        <v>118.9379407011827</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -993,10 +993,10 @@
         <v>45698.03680555556</v>
       </c>
       <c r="B55">
-        <v>21.21290793278442</v>
+        <v>29.31588982274758</v>
       </c>
       <c r="C55">
-        <v>91.84451623591391</v>
+        <v>72.15875186698382</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1004,10 +1004,10 @@
         <v>45698.0375</v>
       </c>
       <c r="B56">
-        <v>22.78841067491154</v>
+        <v>23.16126515265211</v>
       </c>
       <c r="C56">
-        <v>108.0338461090097</v>
+        <v>116.9772865838461</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1015,10 +1015,10 @@
         <v>45698.03819444445</v>
       </c>
       <c r="B57">
-        <v>25.85232976720671</v>
+        <v>21.22546453322444</v>
       </c>
       <c r="C57">
-        <v>54.45515645638604</v>
+        <v>142.910887551865</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1026,10 +1026,10 @@
         <v>45698.03888888889</v>
       </c>
       <c r="B58">
-        <v>11.89977112897243</v>
+        <v>24.58921691928447</v>
       </c>
       <c r="C58">
-        <v>89.56162446097875</v>
+        <v>105.9932337444552</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1037,10 +1037,10 @@
         <v>45698.03958333333</v>
       </c>
       <c r="B59">
-        <v>30.48309501726088</v>
+        <v>25.70870935323279</v>
       </c>
       <c r="C59">
-        <v>110.1119224639528</v>
+        <v>117.5117517719006</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1048,10 +1048,10 @@
         <v>45698.04027777778</v>
       </c>
       <c r="B60">
-        <v>26.54311830902408</v>
+        <v>30.19157190072811</v>
       </c>
       <c r="C60">
-        <v>131.5891789612548</v>
+        <v>68.27561932675869</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1059,10 +1059,10 @@
         <v>45698.04097222222</v>
       </c>
       <c r="B61">
-        <v>21.88513606694258</v>
+        <v>19.13376019468215</v>
       </c>
       <c r="C61">
-        <v>107.7413923140606</v>
+        <v>77.24399341151393</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1070,10 +1070,10 @@
         <v>45698.04166666666</v>
       </c>
       <c r="B62">
-        <v>13.86348105473842</v>
+        <v>26.14728562511366</v>
       </c>
       <c r="C62">
-        <v>104.9982051501026</v>
+        <v>112.9025822809242</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1081,10 +1081,10 @@
         <v>45698.04236111111</v>
       </c>
       <c r="B63">
-        <v>24.95572959338839</v>
+        <v>21.43710831356153</v>
       </c>
       <c r="C63">
-        <v>73.93961952060593</v>
+        <v>102.0492518840024</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1092,10 +1092,10 @@
         <v>45698.04305555556</v>
       </c>
       <c r="B64">
-        <v>23.44992065350842</v>
+        <v>23.36071144904206</v>
       </c>
       <c r="C64">
-        <v>71.56789711375404</v>
+        <v>80.70599084892784</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1103,10 +1103,10 @@
         <v>45698.04375</v>
       </c>
       <c r="B65">
-        <v>15.90388521997856</v>
+        <v>20.6344937965613</v>
       </c>
       <c r="C65">
-        <v>95.89898788307475</v>
+        <v>61.5710858209314</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1114,10 +1114,10 @@
         <v>45698.04444444444</v>
       </c>
       <c r="B66">
-        <v>15.6370287984429</v>
+        <v>20.03809526300069</v>
       </c>
       <c r="C66">
-        <v>98.51646410586166</v>
+        <v>100.7006518323816</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1125,10 +1125,10 @@
         <v>45698.04513888889</v>
       </c>
       <c r="B67">
-        <v>20.64906293976663</v>
+        <v>23.22655351885691</v>
       </c>
       <c r="C67">
-        <v>109.2932155832284</v>
+        <v>139.9370315844214</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1136,10 +1136,10 @@
         <v>45698.04583333333</v>
       </c>
       <c r="B68">
-        <v>18.57323008202681</v>
+        <v>20.44344541205023</v>
       </c>
       <c r="C68">
-        <v>98.41670895970086</v>
+        <v>113.4420098452319</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1147,10 +1147,10 @@
         <v>45698.04652777778</v>
       </c>
       <c r="B69">
-        <v>18.41429752793828</v>
+        <v>18.99091747293845</v>
       </c>
       <c r="C69">
-        <v>113.804636586468</v>
+        <v>93.36956344443455</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1158,10 +1158,10 @@
         <v>45698.04722222222</v>
       </c>
       <c r="B70">
-        <v>18.72401657515562</v>
+        <v>21.47564436895296</v>
       </c>
       <c r="C70">
-        <v>120.6380510680096</v>
+        <v>80.14131464576623</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1169,10 +1169,10 @@
         <v>45698.04791666667</v>
       </c>
       <c r="B71">
-        <v>13.83601410257427</v>
+        <v>23.54671710113845</v>
       </c>
       <c r="C71">
-        <v>90.40912427301295</v>
+        <v>98.19692539521395</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1180,10 +1180,10 @@
         <v>45698.04861111111</v>
       </c>
       <c r="B72">
-        <v>19.37225538040451</v>
+        <v>25.16056770701645</v>
       </c>
       <c r="C72">
-        <v>115.5453277965983</v>
+        <v>91.79813642177945</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1191,10 +1191,10 @@
         <v>45698.04930555556</v>
       </c>
       <c r="B73">
-        <v>19.9005685577259</v>
+        <v>23.21479258990809</v>
       </c>
       <c r="C73">
-        <v>91.72186876444637</v>
+        <v>112.6952882803683</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,10 +1202,10 @@
         <v>45698.05</v>
       </c>
       <c r="B74">
-        <v>27.24300465537714</v>
+        <v>24.00690869386012</v>
       </c>
       <c r="C74">
-        <v>67.33719646765729</v>
+        <v>98.36121616973995</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1213,10 +1213,10 @@
         <v>45698.05069444444</v>
       </c>
       <c r="B75">
-        <v>22.94557067038828</v>
+        <v>16.47656349464242</v>
       </c>
       <c r="C75">
-        <v>88.14869286595732</v>
+        <v>100.5878409627208</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1224,10 +1224,10 @@
         <v>45698.05138888889</v>
       </c>
       <c r="B76">
-        <v>18.72161791129927</v>
+        <v>20.57385552762975</v>
       </c>
       <c r="C76">
-        <v>118.747632751358</v>
+        <v>81.8757447180607</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1235,10 +1235,10 @@
         <v>45698.05208333334</v>
       </c>
       <c r="B77">
-        <v>23.39138692911453</v>
+        <v>22.74726604260722</v>
       </c>
       <c r="C77">
-        <v>78.08273889302603</v>
+        <v>114.4030420862334</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1246,10 +1246,10 @@
         <v>45698.05277777778</v>
       </c>
       <c r="B78">
-        <v>20.44649153243858</v>
+        <v>15.45731219797087</v>
       </c>
       <c r="C78">
-        <v>121.7218858487409</v>
+        <v>102.3429036748228</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1257,10 +1257,10 @@
         <v>45698.05347222222</v>
       </c>
       <c r="B79">
-        <v>20.448315784903</v>
+        <v>23.87311481529012</v>
       </c>
       <c r="C79">
-        <v>70.37135820082065</v>
+        <v>94.30529302061667</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1268,10 +1268,10 @@
         <v>45698.05416666667</v>
       </c>
       <c r="B80">
-        <v>22.6687435011669</v>
+        <v>18.67820016590585</v>
       </c>
       <c r="C80">
-        <v>93.97846090538746</v>
+        <v>116.4865551902614</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1279,10 +1279,10 @@
         <v>45698.05486111111</v>
       </c>
       <c r="B81">
-        <v>26.95671440155684</v>
+        <v>19.31511735582859</v>
       </c>
       <c r="C81">
-        <v>132.3074423157829</v>
+        <v>81.9277676065019</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1290,10 +1290,10 @@
         <v>45698.05555555555</v>
       </c>
       <c r="B82">
-        <v>20.40416596139171</v>
+        <v>19.09757493285883</v>
       </c>
       <c r="C82">
-        <v>70.68167640633911</v>
+        <v>119.5274729491289</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,10 +1301,10 @@
         <v>45698.05625</v>
       </c>
       <c r="B83">
-        <v>15.21553344951055</v>
+        <v>23.37262041872088</v>
       </c>
       <c r="C83">
-        <v>94.50029241100583</v>
+        <v>109.1453174002084</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1312,10 +1312,10 @@
         <v>45698.05694444444</v>
       </c>
       <c r="B84">
-        <v>18.4499311802863</v>
+        <v>24.35259002333085</v>
       </c>
       <c r="C84">
-        <v>107.9172650955225</v>
+        <v>36.18028721595967</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1323,10 +1323,10 @@
         <v>45698.05763888889</v>
       </c>
       <c r="B85">
-        <v>17.93438039953931</v>
+        <v>18.6800180618255</v>
       </c>
       <c r="C85">
-        <v>59.03187395988199</v>
+        <v>102.055035930398</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1334,10 +1334,10 @@
         <v>45698.05833333333</v>
       </c>
       <c r="B86">
-        <v>22.15963236712038</v>
+        <v>14.68360400489021</v>
       </c>
       <c r="C86">
-        <v>99.59342936119251</v>
+        <v>114.7607228891395</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1345,10 +1345,10 @@
         <v>45698.05902777778</v>
       </c>
       <c r="B87">
-        <v>17.5151419268171</v>
+        <v>9.90536244923128</v>
       </c>
       <c r="C87">
-        <v>107.3638072037957</v>
+        <v>99.03008246895624</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1356,10 +1356,10 @@
         <v>45698.05972222222</v>
       </c>
       <c r="B88">
-        <v>25.09369682151078</v>
+        <v>22.08645249803165</v>
       </c>
       <c r="C88">
-        <v>95.36157031671863</v>
+        <v>128.7735450652066</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1367,10 +1367,10 @@
         <v>45698.06041666667</v>
       </c>
       <c r="B89">
-        <v>24.86859077403242</v>
+        <v>26.26743659615266</v>
       </c>
       <c r="C89">
-        <v>63.3840412946939</v>
+        <v>95.09795186691922</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1378,10 +1378,10 @@
         <v>45698.06111111111</v>
       </c>
       <c r="B90">
-        <v>25.1003823843972</v>
+        <v>7.290785379504346</v>
       </c>
       <c r="C90">
-        <v>99.51979109044845</v>
+        <v>88.08591077654901</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1389,10 +1389,10 @@
         <v>45698.06180555555</v>
       </c>
       <c r="B91">
-        <v>17.90583166272081</v>
+        <v>14.82203715251296</v>
       </c>
       <c r="C91">
-        <v>85.42181842196355</v>
+        <v>88.14562423055075</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1400,10 +1400,10 @@
         <v>45698.0625</v>
       </c>
       <c r="B92">
-        <v>20.59214012677176</v>
+        <v>18.90293797073018</v>
       </c>
       <c r="C92">
-        <v>90.50200031866061</v>
+        <v>104.9376190840217</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1411,10 +1411,10 @@
         <v>45698.06319444445</v>
       </c>
       <c r="B93">
-        <v>27.39568525914822</v>
+        <v>14.31591777558489</v>
       </c>
       <c r="C93">
-        <v>108.7833724180864</v>
+        <v>92.74277802766146</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1422,10 +1422,10 @@
         <v>45698.06388888889</v>
       </c>
       <c r="B94">
-        <v>14.91263981391391</v>
+        <v>25.73210408957426</v>
       </c>
       <c r="C94">
-        <v>86.26456200413674</v>
+        <v>128.7380888658599</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1433,10 +1433,10 @@
         <v>45698.06458333333</v>
       </c>
       <c r="B95">
-        <v>31.46145825351182</v>
+        <v>16.93046354556138</v>
       </c>
       <c r="C95">
-        <v>136.1807433937251</v>
+        <v>76.3273768869548</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1444,10 +1444,10 @@
         <v>45698.06527777778</v>
       </c>
       <c r="B96">
-        <v>23.50624473425053</v>
+        <v>25.80782227936623</v>
       </c>
       <c r="C96">
-        <v>131.2263105352089</v>
+        <v>107.7042102986669</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1455,10 +1455,10 @@
         <v>45698.06597222222</v>
       </c>
       <c r="B97">
-        <v>10.31951580607473</v>
+        <v>23.7527961644458</v>
       </c>
       <c r="C97">
-        <v>127.7297428514709</v>
+        <v>100.5954868906877</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1466,10 +1466,10 @@
         <v>45698.06666666667</v>
       </c>
       <c r="B98">
-        <v>15.31844367168612</v>
+        <v>13.46485797770369</v>
       </c>
       <c r="C98">
-        <v>71.54520709641224</v>
+        <v>108.8635664454678</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1477,10 +1477,10 @@
         <v>45698.06736111111</v>
       </c>
       <c r="B99">
-        <v>24.04817602228772</v>
+        <v>14.81766431530469</v>
       </c>
       <c r="C99">
-        <v>97.81485267842267</v>
+        <v>107.2971652247125</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1488,10 +1488,10 @@
         <v>45698.06805555556</v>
       </c>
       <c r="B100">
-        <v>13.06756905548842</v>
+        <v>20.26583982433351</v>
       </c>
       <c r="C100">
-        <v>106.9278370382653</v>
+        <v>104.491462186425</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1499,10 +1499,10 @@
         <v>45698.06875</v>
       </c>
       <c r="B101">
-        <v>22.81497481425336</v>
+        <v>16.43062461273137</v>
       </c>
       <c r="C101">
-        <v>103.9672978097896</v>
+        <v>126.2336162246061</v>
       </c>
     </row>
   </sheetData>

--- a/network_data.xlsx
+++ b/network_data.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,10 +410,10 @@
         <v>45698</v>
       </c>
       <c r="B2">
-        <v>14.8967518172804</v>
+        <v>20.83480111312893</v>
       </c>
       <c r="C2">
-        <v>98.86037952175701</v>
+        <v>89.52341376807759</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -421,10 +421,10 @@
         <v>45698.00069444445</v>
       </c>
       <c r="B3">
-        <v>12.44712490332475</v>
+        <v>19.48761196753754</v>
       </c>
       <c r="C3">
-        <v>84.38861340350226</v>
+        <v>98.8487121862341</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,10 +432,10 @@
         <v>45698.00138888889</v>
       </c>
       <c r="B4">
-        <v>14.4482206727562</v>
+        <v>14.90798898218132</v>
       </c>
       <c r="C4">
-        <v>92.09190541774254</v>
+        <v>106.2493169725791</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -443,10 +443,10 @@
         <v>45698.00208333333</v>
       </c>
       <c r="B5">
-        <v>24.18770203096351</v>
+        <v>11.42426249063765</v>
       </c>
       <c r="C5">
-        <v>98.17340646300016</v>
+        <v>78.49143475766446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,10 +454,10 @@
         <v>45698.00277777778</v>
       </c>
       <c r="B6">
-        <v>14.98122852926548</v>
+        <v>18.65958256080987</v>
       </c>
       <c r="C6">
-        <v>71.18570779821437</v>
+        <v>79.66176424536027</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -465,10 +465,10 @@
         <v>45698.00347222222</v>
       </c>
       <c r="B7">
-        <v>16.91241939147755</v>
+        <v>12.89397033625164</v>
       </c>
       <c r="C7">
-        <v>94.16404228268392</v>
+        <v>95.27221881295772</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -476,10 +476,10 @@
         <v>45698.00416666667</v>
       </c>
       <c r="B8">
-        <v>19.26271486860858</v>
+        <v>19.21948826370248</v>
       </c>
       <c r="C8">
-        <v>93.63261448661925</v>
+        <v>130.6396249767798</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -487,10 +487,10 @@
         <v>45698.00486111111</v>
       </c>
       <c r="B9">
-        <v>15.18261662450432</v>
+        <v>23.97463595335761</v>
       </c>
       <c r="C9">
-        <v>107.7206697902965</v>
+        <v>77.37291735405742</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -498,10 +498,10 @@
         <v>45698.00555555556</v>
       </c>
       <c r="B10">
-        <v>24.35034818476903</v>
+        <v>19.1734741052392</v>
       </c>
       <c r="C10">
-        <v>123.6020743240838</v>
+        <v>79.43145024196095</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -509,10 +509,10 @@
         <v>45698.00625</v>
       </c>
       <c r="B11">
-        <v>22.66896802996012</v>
+        <v>22.56537874045872</v>
       </c>
       <c r="C11">
-        <v>87.10934848984786</v>
+        <v>117.0209168268558</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -520,10 +520,10 @@
         <v>45698.00694444445</v>
       </c>
       <c r="B12">
-        <v>10.41634202016447</v>
+        <v>26.68343287977076</v>
       </c>
       <c r="C12">
-        <v>93.34575997153108</v>
+        <v>119.7374485410061</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -531,10 +531,10 @@
         <v>45698.00763888889</v>
       </c>
       <c r="B13">
-        <v>20.74446263231571</v>
+        <v>21.38497171240891</v>
       </c>
       <c r="C13">
-        <v>92.38384988615432</v>
+        <v>113.1841102138814</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -542,10 +542,10 @@
         <v>45698.00833333333</v>
       </c>
       <c r="B14">
-        <v>18.68695883884957</v>
+        <v>17.43405094423664</v>
       </c>
       <c r="C14">
-        <v>134.1951024234776</v>
+        <v>124.2266753562755</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -553,10 +553,10 @@
         <v>45698.00902777778</v>
       </c>
       <c r="B15">
-        <v>16.82949472848577</v>
+        <v>16.22864492973818</v>
       </c>
       <c r="C15">
-        <v>90.54178581209453</v>
+        <v>104.2816976170885</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -564,10 +564,10 @@
         <v>45698.00972222222</v>
       </c>
       <c r="B16">
-        <v>19.81286471391581</v>
+        <v>27.84326129800196</v>
       </c>
       <c r="C16">
-        <v>120.2657581461134</v>
+        <v>134.9097923075486</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -575,10 +575,10 @@
         <v>45698.01041666666</v>
       </c>
       <c r="B17">
-        <v>14.42739670549144</v>
+        <v>16.92185104529981</v>
       </c>
       <c r="C17">
-        <v>96.84285877858804</v>
+        <v>103.4747437616503</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -586,10 +586,10 @@
         <v>45698.01111111111</v>
       </c>
       <c r="B18">
-        <v>17.16641788138129</v>
+        <v>26.70472887902278</v>
       </c>
       <c r="C18">
-        <v>128.9939156284099</v>
+        <v>89.8598299365554</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -597,10 +597,10 @@
         <v>45698.01180555556</v>
       </c>
       <c r="B19">
-        <v>21.60523063696653</v>
+        <v>24.58175644109624</v>
       </c>
       <c r="C19">
-        <v>102.9630641219267</v>
+        <v>115.1859860645572</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -608,10 +608,10 @@
         <v>45698.0125</v>
       </c>
       <c r="B20">
-        <v>19.32612270422538</v>
+        <v>22.14509205215155</v>
       </c>
       <c r="C20">
-        <v>132.1974507867375</v>
+        <v>127.7707723085683</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -619,10 +619,10 @@
         <v>45698.01319444444</v>
       </c>
       <c r="B21">
-        <v>28.9513951103034</v>
+        <v>20.17280472862561</v>
       </c>
       <c r="C21">
-        <v>99.12680448867623</v>
+        <v>133.3368734569835</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -630,10 +630,10 @@
         <v>45698.01388888889</v>
       </c>
       <c r="B22">
-        <v>21.98375760642464</v>
+        <v>20.04590222129609</v>
       </c>
       <c r="C22">
-        <v>119.3540658681022</v>
+        <v>116.0752833087147</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -641,10 +641,10 @@
         <v>45698.01458333333</v>
       </c>
       <c r="B23">
-        <v>25.90479561764079</v>
+        <v>23.69007048039447</v>
       </c>
       <c r="C23">
-        <v>145.1341368468404</v>
+        <v>130.890596178893</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -652,10 +652,10 @@
         <v>45698.01527777778</v>
       </c>
       <c r="B24">
-        <v>19.10036737260595</v>
+        <v>17.86643008687338</v>
       </c>
       <c r="C24">
-        <v>124.5738512897046</v>
+        <v>95.24897939770786</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -663,10 +663,10 @@
         <v>45698.01597222222</v>
       </c>
       <c r="B25">
-        <v>10.10190123071226</v>
+        <v>18.65683964392522</v>
       </c>
       <c r="C25">
-        <v>111.2663626714431</v>
+        <v>112.7313394968562</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -674,10 +674,10 @@
         <v>45698.01666666667</v>
       </c>
       <c r="B26">
-        <v>18.70785580770954</v>
+        <v>22.56891239291689</v>
       </c>
       <c r="C26">
-        <v>130.7736313730308</v>
+        <v>91.78373075803511</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -685,10 +685,10 @@
         <v>45698.01736111111</v>
       </c>
       <c r="B27">
-        <v>14.47109963597905</v>
+        <v>19.79630412201291</v>
       </c>
       <c r="C27">
-        <v>100.4662010057663</v>
+        <v>82.96476762546001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -696,10 +696,10 @@
         <v>45698.01805555556</v>
       </c>
       <c r="B28">
-        <v>29.71834794414187</v>
+        <v>20.49924274203303</v>
       </c>
       <c r="C28">
-        <v>89.87522789991849</v>
+        <v>61.84383647392613</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -707,10 +707,10 @@
         <v>45698.01875</v>
       </c>
       <c r="B29">
-        <v>21.90953085584905</v>
+        <v>27.75107737607699</v>
       </c>
       <c r="C29">
-        <v>90.53935651465611</v>
+        <v>123.5702177563967</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -718,10 +718,10 @@
         <v>45698.01944444444</v>
       </c>
       <c r="B30">
-        <v>22.11214610898566</v>
+        <v>16.84623382975825</v>
       </c>
       <c r="C30">
-        <v>150.3471153132572</v>
+        <v>108.1604139526898</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -729,10 +729,10 @@
         <v>45698.02013888889</v>
       </c>
       <c r="B31">
-        <v>18.98434800107934</v>
+        <v>22.07219907140094</v>
       </c>
       <c r="C31">
-        <v>120.4313075573144</v>
+        <v>129.3847885771433</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -740,10 +740,10 @@
         <v>45698.02083333334</v>
       </c>
       <c r="B32">
-        <v>20.85961991500082</v>
+        <v>8.651913103286423</v>
       </c>
       <c r="C32">
-        <v>68.08774531285522</v>
+        <v>103.8847230416739</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -751,10 +751,10 @@
         <v>45698.02152777778</v>
       </c>
       <c r="B33">
-        <v>21.56431316187235</v>
+        <v>12.70944544240847</v>
       </c>
       <c r="C33">
-        <v>67.84817013015558</v>
+        <v>78.74337507377525</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -762,10 +762,10 @@
         <v>45698.02222222222</v>
       </c>
       <c r="B34">
-        <v>17.69313062037499</v>
+        <v>25.5392186246635</v>
       </c>
       <c r="C34">
-        <v>91.09312648359735</v>
+        <v>71.23885446603104</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -773,10 +773,10 @@
         <v>45698.02291666667</v>
       </c>
       <c r="B35">
-        <v>20.24705097325404</v>
+        <v>23.91945573314112</v>
       </c>
       <c r="C35">
-        <v>86.11884061601087</v>
+        <v>68.90877299602175</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -784,10 +784,10 @@
         <v>45698.02361111111</v>
       </c>
       <c r="B36">
-        <v>15.32924286901579</v>
+        <v>14.43319206168185</v>
       </c>
       <c r="C36">
-        <v>121.9742870922826</v>
+        <v>87.27740791191323</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -795,10 +795,10 @@
         <v>45698.02430555555</v>
       </c>
       <c r="B37">
-        <v>25.43298223576977</v>
+        <v>17.30504524523014</v>
       </c>
       <c r="C37">
-        <v>91.9873052244714</v>
+        <v>66.46366435382487</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -806,10 +806,10 @@
         <v>45698.025</v>
       </c>
       <c r="B38">
-        <v>17.12592590874939</v>
+        <v>15.31425212293788</v>
       </c>
       <c r="C38">
-        <v>68.34787859203547</v>
+        <v>122.8212879352782</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -817,10 +817,10 @@
         <v>45698.02569444444</v>
       </c>
       <c r="B39">
-        <v>9.657346884721616</v>
+        <v>16.94002238141024</v>
       </c>
       <c r="C39">
-        <v>45.29844396671051</v>
+        <v>90.56619322261977</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -828,10 +828,10 @@
         <v>45698.02638888889</v>
       </c>
       <c r="B40">
-        <v>19.31875634667352</v>
+        <v>28.25810114266937</v>
       </c>
       <c r="C40">
-        <v>56.56186101765398</v>
+        <v>118.7350829033585</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -839,10 +839,10 @@
         <v>45698.02708333333</v>
       </c>
       <c r="B41">
-        <v>23.67185133099692</v>
+        <v>15.36917003496823</v>
       </c>
       <c r="C41">
-        <v>111.6239291362955</v>
+        <v>96.05948139764583</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -850,10 +850,10 @@
         <v>45698.02777777778</v>
       </c>
       <c r="B42">
-        <v>12.38466607085255</v>
+        <v>22.51773852034575</v>
       </c>
       <c r="C42">
-        <v>98.3051167844784</v>
+        <v>122.1918235195148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -861,10 +861,10 @@
         <v>45698.02847222222</v>
       </c>
       <c r="B43">
-        <v>22.67434212602656</v>
+        <v>24.72204359966972</v>
       </c>
       <c r="C43">
-        <v>123.6910139861533</v>
+        <v>90.52701942248149</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -872,10 +872,10 @@
         <v>45698.02916666667</v>
       </c>
       <c r="B44">
-        <v>17.55396048628759</v>
+        <v>20.69911209876864</v>
       </c>
       <c r="C44">
-        <v>104.2109723375425</v>
+        <v>138.2746259113339</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -883,10 +883,10 @@
         <v>45698.02986111111</v>
       </c>
       <c r="B45">
-        <v>21.16925038684456</v>
+        <v>22.78067735934333</v>
       </c>
       <c r="C45">
-        <v>100.0607641361108</v>
+        <v>127.3168401058545</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -894,10 +894,10 @@
         <v>45698.03055555555</v>
       </c>
       <c r="B46">
-        <v>24.89951703340871</v>
+        <v>24.39020948695072</v>
       </c>
       <c r="C46">
-        <v>107.3915427493642</v>
+        <v>116.0808586665781</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -905,10 +905,10 @@
         <v>45698.03125</v>
       </c>
       <c r="B47">
-        <v>16.5984397747037</v>
+        <v>11.98215786523629</v>
       </c>
       <c r="C47">
-        <v>109.0909717262669</v>
+        <v>52.04302130946714</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -916,10 +916,10 @@
         <v>45698.03194444445</v>
       </c>
       <c r="B48">
-        <v>15.66833815482555</v>
+        <v>19.99559124470882</v>
       </c>
       <c r="C48">
-        <v>82.72976570897659</v>
+        <v>91.00329241660312</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -927,10 +927,10 @@
         <v>45698.03263888889</v>
       </c>
       <c r="B49">
-        <v>29.4209135869425</v>
+        <v>11.2217776565585</v>
       </c>
       <c r="C49">
-        <v>103.4415002598585</v>
+        <v>107.8251500365994</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -938,10 +938,10 @@
         <v>45698.03333333333</v>
       </c>
       <c r="B50">
-        <v>13.60896533588832</v>
+        <v>24.71996107464906</v>
       </c>
       <c r="C50">
-        <v>99.75327005111969</v>
+        <v>122.1147228133944</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -949,10 +949,10 @@
         <v>45698.03402777778</v>
       </c>
       <c r="B51">
-        <v>18.35762104005119</v>
+        <v>12.13065322690983</v>
       </c>
       <c r="C51">
-        <v>96.83876392049852</v>
+        <v>81.16102368907687</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -960,10 +960,10 @@
         <v>45698.03472222222</v>
       </c>
       <c r="B52">
-        <v>17.29122620314665</v>
+        <v>19.47908419692209</v>
       </c>
       <c r="C52">
-        <v>112.6559197553122</v>
+        <v>119.4059705537154</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -971,10 +971,10 @@
         <v>45698.03541666667</v>
       </c>
       <c r="B53">
-        <v>14.78977174145351</v>
+        <v>16.19398576838736</v>
       </c>
       <c r="C53">
-        <v>119.8472423046021</v>
+        <v>89.00885884297386</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -982,10 +982,10 @@
         <v>45698.03611111111</v>
       </c>
       <c r="B54">
-        <v>18.42951222918717</v>
+        <v>20.16160008298367</v>
       </c>
       <c r="C54">
-        <v>118.9379407011827</v>
+        <v>112.8826225745328</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -993,10 +993,10 @@
         <v>45698.03680555556</v>
       </c>
       <c r="B55">
-        <v>29.31588982274758</v>
+        <v>15.84655666394578</v>
       </c>
       <c r="C55">
-        <v>72.15875186698382</v>
+        <v>124.686338958522</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1004,10 +1004,10 @@
         <v>45698.0375</v>
       </c>
       <c r="B56">
-        <v>23.16126515265211</v>
+        <v>25.42867482003957</v>
       </c>
       <c r="C56">
-        <v>116.9772865838461</v>
+        <v>98.31015536736655</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1015,10 +1015,10 @@
         <v>45698.03819444445</v>
       </c>
       <c r="B57">
-        <v>21.22546453322444</v>
+        <v>17.26343004292601</v>
       </c>
       <c r="C57">
-        <v>142.910887551865</v>
+        <v>129.2059229363043</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1026,10 +1026,10 @@
         <v>45698.03888888889</v>
       </c>
       <c r="B58">
-        <v>24.58921691928447</v>
+        <v>21.305455857281</v>
       </c>
       <c r="C58">
-        <v>105.9932337444552</v>
+        <v>100.5681864295505</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1037,10 +1037,10 @@
         <v>45698.03958333333</v>
       </c>
       <c r="B59">
-        <v>25.70870935323279</v>
+        <v>22.36204255656691</v>
       </c>
       <c r="C59">
-        <v>117.5117517719006</v>
+        <v>130.0504268753454</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1048,10 +1048,10 @@
         <v>45698.04027777778</v>
       </c>
       <c r="B60">
-        <v>30.19157190072811</v>
+        <v>21.03539239357985</v>
       </c>
       <c r="C60">
-        <v>68.27561932675869</v>
+        <v>72.47556658642894</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1059,10 +1059,10 @@
         <v>45698.04097222222</v>
       </c>
       <c r="B61">
-        <v>19.13376019468215</v>
+        <v>20.50191709738257</v>
       </c>
       <c r="C61">
-        <v>77.24399341151393</v>
+        <v>117.3399477803726</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1070,10 +1070,10 @@
         <v>45698.04166666666</v>
       </c>
       <c r="B62">
-        <v>26.14728562511366</v>
+        <v>15.68049821745545</v>
       </c>
       <c r="C62">
-        <v>112.9025822809242</v>
+        <v>90.35471430388228</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1081,10 +1081,10 @@
         <v>45698.04236111111</v>
       </c>
       <c r="B63">
-        <v>21.43710831356153</v>
+        <v>22.76082728282697</v>
       </c>
       <c r="C63">
-        <v>102.0492518840024</v>
+        <v>138.2682158424825</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1092,10 +1092,10 @@
         <v>45698.04305555556</v>
       </c>
       <c r="B64">
-        <v>23.36071144904206</v>
+        <v>14.75955428460881</v>
       </c>
       <c r="C64">
-        <v>80.70599084892784</v>
+        <v>79.88049622251719</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1103,10 +1103,10 @@
         <v>45698.04375</v>
       </c>
       <c r="B65">
-        <v>20.6344937965613</v>
+        <v>20.71026449819359</v>
       </c>
       <c r="C65">
-        <v>61.5710858209314</v>
+        <v>117.5275686045868</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1114,10 +1114,10 @@
         <v>45698.04444444444</v>
       </c>
       <c r="B66">
-        <v>20.03809526300069</v>
+        <v>26.10442607628856</v>
       </c>
       <c r="C66">
-        <v>100.7006518323816</v>
+        <v>108.1327878462349</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1125,10 +1125,10 @@
         <v>45698.04513888889</v>
       </c>
       <c r="B67">
-        <v>23.22655351885691</v>
+        <v>21.21661837033535</v>
       </c>
       <c r="C67">
-        <v>139.9370315844214</v>
+        <v>79.31604943921255</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1136,10 +1136,10 @@
         <v>45698.04583333333</v>
       </c>
       <c r="B68">
-        <v>20.44344541205023</v>
+        <v>15.21323559079655</v>
       </c>
       <c r="C68">
-        <v>113.4420098452319</v>
+        <v>150.7232207564437</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1147,10 +1147,10 @@
         <v>45698.04652777778</v>
       </c>
       <c r="B69">
-        <v>18.99091747293845</v>
+        <v>18.90455395252487</v>
       </c>
       <c r="C69">
-        <v>93.36956344443455</v>
+        <v>130.0308163840063</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1158,10 +1158,10 @@
         <v>45698.04722222222</v>
       </c>
       <c r="B70">
-        <v>21.47564436895296</v>
+        <v>22.32940728744474</v>
       </c>
       <c r="C70">
-        <v>80.14131464576623</v>
+        <v>87.56326348392091</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1169,10 +1169,10 @@
         <v>45698.04791666667</v>
       </c>
       <c r="B71">
-        <v>23.54671710113845</v>
+        <v>17.58456401604815</v>
       </c>
       <c r="C71">
-        <v>98.19692539521395</v>
+        <v>112.3856664234602</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1180,10 +1180,10 @@
         <v>45698.04861111111</v>
       </c>
       <c r="B72">
-        <v>25.16056770701645</v>
+        <v>26.80787489302553</v>
       </c>
       <c r="C72">
-        <v>91.79813642177945</v>
+        <v>96.77660424645343</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1191,10 +1191,10 @@
         <v>45698.04930555556</v>
       </c>
       <c r="B73">
-        <v>23.21479258990809</v>
+        <v>19.18553328303091</v>
       </c>
       <c r="C73">
-        <v>112.6952882803683</v>
+        <v>80.40221227770941</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,10 +1202,10 @@
         <v>45698.05</v>
       </c>
       <c r="B74">
-        <v>24.00690869386012</v>
+        <v>19.1465091330334</v>
       </c>
       <c r="C74">
-        <v>98.36121616973995</v>
+        <v>91.39201149199155</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1213,10 +1213,10 @@
         <v>45698.05069444444</v>
       </c>
       <c r="B75">
-        <v>16.47656349464242</v>
+        <v>24.08331819025841</v>
       </c>
       <c r="C75">
-        <v>100.5878409627208</v>
+        <v>113.9432727787854</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1224,10 +1224,10 @@
         <v>45698.05138888889</v>
       </c>
       <c r="B76">
-        <v>20.57385552762975</v>
+        <v>23.08895152643963</v>
       </c>
       <c r="C76">
-        <v>81.8757447180607</v>
+        <v>79.64153863265683</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1235,10 +1235,10 @@
         <v>45698.05208333334</v>
       </c>
       <c r="B77">
-        <v>22.74726604260722</v>
+        <v>23.04429781188432</v>
       </c>
       <c r="C77">
-        <v>114.4030420862334</v>
+        <v>108.7809533151488</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1246,10 +1246,10 @@
         <v>45698.05277777778</v>
       </c>
       <c r="B78">
-        <v>15.45731219797087</v>
+        <v>19.92829555392707</v>
       </c>
       <c r="C78">
-        <v>102.3429036748228</v>
+        <v>129.9992136936112</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1257,10 +1257,10 @@
         <v>45698.05347222222</v>
       </c>
       <c r="B79">
-        <v>23.87311481529012</v>
+        <v>18.69851281895428</v>
       </c>
       <c r="C79">
-        <v>94.30529302061667</v>
+        <v>98.44782605549248</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1268,10 +1268,10 @@
         <v>45698.05416666667</v>
       </c>
       <c r="B80">
-        <v>18.67820016590585</v>
+        <v>13.9634863611276</v>
       </c>
       <c r="C80">
-        <v>116.4865551902614</v>
+        <v>156.4996822929723</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1279,10 +1279,10 @@
         <v>45698.05486111111</v>
       </c>
       <c r="B81">
-        <v>19.31511735582859</v>
+        <v>17.85611318898518</v>
       </c>
       <c r="C81">
-        <v>81.9277676065019</v>
+        <v>76.71061301818817</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1290,10 +1290,10 @@
         <v>45698.05555555555</v>
       </c>
       <c r="B82">
-        <v>19.09757493285883</v>
+        <v>29.57380615609515</v>
       </c>
       <c r="C82">
-        <v>119.5274729491289</v>
+        <v>96.12780739289059</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,10 +1301,10 @@
         <v>45698.05625</v>
       </c>
       <c r="B83">
-        <v>23.37262041872088</v>
+        <v>20.84223694216019</v>
       </c>
       <c r="C83">
-        <v>109.1453174002084</v>
+        <v>123.6086180136581</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1312,10 +1312,10 @@
         <v>45698.05694444444</v>
       </c>
       <c r="B84">
-        <v>24.35259002333085</v>
+        <v>17.29771770712651</v>
       </c>
       <c r="C84">
-        <v>36.18028721595967</v>
+        <v>84.67045483184326</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1323,10 +1323,10 @@
         <v>45698.05763888889</v>
       </c>
       <c r="B85">
-        <v>18.6800180618255</v>
+        <v>17.18486361136949</v>
       </c>
       <c r="C85">
-        <v>102.055035930398</v>
+        <v>114.7205295110534</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1334,10 +1334,10 @@
         <v>45698.05833333333</v>
       </c>
       <c r="B86">
-        <v>14.68360400489021</v>
+        <v>24.56960239192801</v>
       </c>
       <c r="C86">
-        <v>114.7607228891395</v>
+        <v>87.76791322847286</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1345,10 +1345,10 @@
         <v>45698.05902777778</v>
       </c>
       <c r="B87">
-        <v>9.90536244923128</v>
+        <v>10.6714553936607</v>
       </c>
       <c r="C87">
-        <v>99.03008246895624</v>
+        <v>104.5252612048763</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1356,10 +1356,10 @@
         <v>45698.05972222222</v>
       </c>
       <c r="B88">
-        <v>22.08645249803165</v>
+        <v>24.9961979881774</v>
       </c>
       <c r="C88">
-        <v>128.7735450652066</v>
+        <v>109.1856364947125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1367,10 +1367,10 @@
         <v>45698.06041666667</v>
       </c>
       <c r="B89">
-        <v>26.26743659615266</v>
+        <v>19.66952169482285</v>
       </c>
       <c r="C89">
-        <v>95.09795186691922</v>
+        <v>125.3155124634303</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1378,10 +1378,10 @@
         <v>45698.06111111111</v>
       </c>
       <c r="B90">
-        <v>7.290785379504346</v>
+        <v>20.19263170121964</v>
       </c>
       <c r="C90">
-        <v>88.08591077654901</v>
+        <v>68.007334938404</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1389,10 +1389,10 @@
         <v>45698.06180555555</v>
       </c>
       <c r="B91">
-        <v>14.82203715251296</v>
+        <v>17.97921749622864</v>
       </c>
       <c r="C91">
-        <v>88.14562423055075</v>
+        <v>93.26626973503815</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1400,10 +1400,10 @@
         <v>45698.0625</v>
       </c>
       <c r="B92">
-        <v>18.90293797073018</v>
+        <v>23.44269520923115</v>
       </c>
       <c r="C92">
-        <v>104.9376190840217</v>
+        <v>76.62633675595868</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1411,10 +1411,10 @@
         <v>45698.06319444445</v>
       </c>
       <c r="B93">
-        <v>14.31591777558489</v>
+        <v>23.81575531728243</v>
       </c>
       <c r="C93">
-        <v>92.74277802766146</v>
+        <v>101.5663063684889</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1422,10 +1422,10 @@
         <v>45698.06388888889</v>
       </c>
       <c r="B94">
-        <v>25.73210408957426</v>
+        <v>20.92069403934356</v>
       </c>
       <c r="C94">
-        <v>128.7380888658599</v>
+        <v>109.0540029140224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1433,10 +1433,10 @@
         <v>45698.06458333333</v>
       </c>
       <c r="B95">
-        <v>16.93046354556138</v>
+        <v>23.96887510380605</v>
       </c>
       <c r="C95">
-        <v>76.3273768869548</v>
+        <v>97.75048194299877</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1444,10 +1444,10 @@
         <v>45698.06527777778</v>
       </c>
       <c r="B96">
-        <v>25.80782227936623</v>
+        <v>22.1670937342183</v>
       </c>
       <c r="C96">
-        <v>107.7042102986669</v>
+        <v>104.2562432090916</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1455,10 +1455,10 @@
         <v>45698.06597222222</v>
       </c>
       <c r="B97">
-        <v>23.7527961644458</v>
+        <v>24.68774707695434</v>
       </c>
       <c r="C97">
-        <v>100.5954868906877</v>
+        <v>77.50139500357764</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1466,10 +1466,10 @@
         <v>45698.06666666667</v>
       </c>
       <c r="B98">
-        <v>13.46485797770369</v>
+        <v>25.08811538045919</v>
       </c>
       <c r="C98">
-        <v>108.8635664454678</v>
+        <v>127.4943443232926</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1477,10 +1477,10 @@
         <v>45698.06736111111</v>
       </c>
       <c r="B99">
-        <v>14.81766431530469</v>
+        <v>22.57864196880471</v>
       </c>
       <c r="C99">
-        <v>107.2971652247125</v>
+        <v>82.26672355875328</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1488,10 +1488,10 @@
         <v>45698.06805555556</v>
       </c>
       <c r="B100">
-        <v>20.26583982433351</v>
+        <v>15.02322827564594</v>
       </c>
       <c r="C100">
-        <v>104.491462186425</v>
+        <v>101.1818463299272</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1499,10 +1499,4993 @@
         <v>45698.06875</v>
       </c>
       <c r="B101">
-        <v>16.43062461273137</v>
+        <v>23.05473761385307</v>
       </c>
       <c r="C101">
-        <v>126.2336162246061</v>
+        <v>120.0080120984842</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45698.06944444445</v>
+      </c>
+      <c r="B102">
+        <v>20.41264908706112</v>
+      </c>
+      <c r="C102">
+        <v>70.8390572353396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45698.07013888889</v>
+      </c>
+      <c r="B103">
+        <v>24.05577000591547</v>
+      </c>
+      <c r="C103">
+        <v>92.39586305622065</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45698.07083333333</v>
+      </c>
+      <c r="B104">
+        <v>21.38724126525697</v>
+      </c>
+      <c r="C104">
+        <v>89.60215452447918</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45698.07152777778</v>
+      </c>
+      <c r="B105">
+        <v>17.67335162384305</v>
+      </c>
+      <c r="C105">
+        <v>102.0191121173586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45698.07222222222</v>
+      </c>
+      <c r="B106">
+        <v>28.08155822985181</v>
+      </c>
+      <c r="C106">
+        <v>101.0684476106593</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45698.07291666666</v>
+      </c>
+      <c r="B107">
+        <v>27.89193675147062</v>
+      </c>
+      <c r="C107">
+        <v>91.282422071718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45698.07361111111</v>
+      </c>
+      <c r="B108">
+        <v>23.05712293591723</v>
+      </c>
+      <c r="C108">
+        <v>76.9374681912269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45698.07430555556</v>
+      </c>
+      <c r="B109">
+        <v>14.85964571003156</v>
+      </c>
+      <c r="C109">
+        <v>128.5454625329985</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45698.075</v>
+      </c>
+      <c r="B110">
+        <v>25.51156829067924</v>
+      </c>
+      <c r="C110">
+        <v>96.21699349886441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45698.07569444444</v>
+      </c>
+      <c r="B111">
+        <v>19.50098881406852</v>
+      </c>
+      <c r="C111">
+        <v>119.8558562466145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45698.07638888889</v>
+      </c>
+      <c r="B112">
+        <v>26.13846833684177</v>
+      </c>
+      <c r="C112">
+        <v>75.41986958734987</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45698.07708333333</v>
+      </c>
+      <c r="B113">
+        <v>21.35895296358008</v>
+      </c>
+      <c r="C113">
+        <v>108.0765428687108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45698.07777777778</v>
+      </c>
+      <c r="B114">
+        <v>24.98748344540165</v>
+      </c>
+      <c r="C114">
+        <v>131.6249286182567</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45698.07847222222</v>
+      </c>
+      <c r="B115">
+        <v>20.0690684493453</v>
+      </c>
+      <c r="C115">
+        <v>107.290198671825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45698.07916666667</v>
+      </c>
+      <c r="B116">
+        <v>14.79876427222917</v>
+      </c>
+      <c r="C116">
+        <v>118.8398454217661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45698.07986111111</v>
+      </c>
+      <c r="B117">
+        <v>14.88984425799735</v>
+      </c>
+      <c r="C117">
+        <v>134.5774820167206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45698.08055555556</v>
+      </c>
+      <c r="B118">
+        <v>14.95898884557645</v>
+      </c>
+      <c r="C118">
+        <v>86.68711594807235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45698.08125</v>
+      </c>
+      <c r="B119">
+        <v>17.69560832216258</v>
+      </c>
+      <c r="C119">
+        <v>99.57764560886123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45698.08194444444</v>
+      </c>
+      <c r="B120">
+        <v>22.03442669654085</v>
+      </c>
+      <c r="C120">
+        <v>93.49862294168584</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45698.08263888889</v>
+      </c>
+      <c r="B121">
+        <v>23.50249321612082</v>
+      </c>
+      <c r="C121">
+        <v>69.3780057956396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45698.08333333334</v>
+      </c>
+      <c r="B122">
+        <v>25.4742191865172</v>
+      </c>
+      <c r="C122">
+        <v>90.47407988703947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45698.08402777778</v>
+      </c>
+      <c r="B123">
+        <v>30.01926309223052</v>
+      </c>
+      <c r="C123">
+        <v>72.59949370694908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45698.08472222222</v>
+      </c>
+      <c r="B124">
+        <v>30.04299219094441</v>
+      </c>
+      <c r="C124">
+        <v>117.4792891703251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45698.08541666667</v>
+      </c>
+      <c r="B125">
+        <v>21.24511832675212</v>
+      </c>
+      <c r="C125">
+        <v>102.8927582029533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45698.08611111111</v>
+      </c>
+      <c r="B126">
+        <v>14.06189010458479</v>
+      </c>
+      <c r="C126">
+        <v>65.59647659955742</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45698.08680555555</v>
+      </c>
+      <c r="B127">
+        <v>20.25622330802048</v>
+      </c>
+      <c r="C127">
+        <v>95.53546071052757</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45698.0875</v>
+      </c>
+      <c r="B128">
+        <v>4.088867075077047</v>
+      </c>
+      <c r="C128">
+        <v>94.40490913498931</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45698.08819444444</v>
+      </c>
+      <c r="B129">
+        <v>20.21597518343707</v>
+      </c>
+      <c r="C129">
+        <v>98.10857342842277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45698.08888888889</v>
+      </c>
+      <c r="B130">
+        <v>19.36645069384068</v>
+      </c>
+      <c r="C130">
+        <v>97.12238851206595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45698.08958333333</v>
+      </c>
+      <c r="B131">
+        <v>21.15448993684912</v>
+      </c>
+      <c r="C131">
+        <v>107.5345315578119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45698.09027777778</v>
+      </c>
+      <c r="B132">
+        <v>22.65552702501217</v>
+      </c>
+      <c r="C132">
+        <v>121.6994202412676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45698.09097222222</v>
+      </c>
+      <c r="B133">
+        <v>21.37133409402359</v>
+      </c>
+      <c r="C133">
+        <v>107.1071083669137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45698.09166666667</v>
+      </c>
+      <c r="B134">
+        <v>24.36281631969475</v>
+      </c>
+      <c r="C134">
+        <v>92.21015440486185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45698.09236111111</v>
+      </c>
+      <c r="B135">
+        <v>22.35453663738084</v>
+      </c>
+      <c r="C135">
+        <v>115.901648706984</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45698.09305555555</v>
+      </c>
+      <c r="B136">
+        <v>13.10215715912648</v>
+      </c>
+      <c r="C136">
+        <v>107.0866290659737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45698.09375</v>
+      </c>
+      <c r="B137">
+        <v>20.02021405919564</v>
+      </c>
+      <c r="C137">
+        <v>108.1809143465805</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45698.09444444445</v>
+      </c>
+      <c r="B138">
+        <v>25.75948541294125</v>
+      </c>
+      <c r="C138">
+        <v>110.2606429809011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45698.09513888889</v>
+      </c>
+      <c r="B139">
+        <v>25.79213954534073</v>
+      </c>
+      <c r="C139">
+        <v>107.6431399960612</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45698.09583333333</v>
+      </c>
+      <c r="B140">
+        <v>21.75300078599843</v>
+      </c>
+      <c r="C140">
+        <v>102.9207560613074</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45698.09652777778</v>
+      </c>
+      <c r="B141">
+        <v>19.71254617684955</v>
+      </c>
+      <c r="C141">
+        <v>98.52763405388245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45698.09722222222</v>
+      </c>
+      <c r="B142">
+        <v>28.85896703350927</v>
+      </c>
+      <c r="C142">
+        <v>116.3577235000288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45698.09791666667</v>
+      </c>
+      <c r="B143">
+        <v>14.23724964128703</v>
+      </c>
+      <c r="C143">
+        <v>80.80376037113203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45698.09861111111</v>
+      </c>
+      <c r="B144">
+        <v>18.87835325159418</v>
+      </c>
+      <c r="C144">
+        <v>78.24642280825444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45698.09930555556</v>
+      </c>
+      <c r="B145">
+        <v>19.80978526007258</v>
+      </c>
+      <c r="C145">
+        <v>88.05803548171423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45698.1</v>
+      </c>
+      <c r="B146">
+        <v>16.58373055432548</v>
+      </c>
+      <c r="C146">
+        <v>143.9963790665021</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45698.10069444445</v>
+      </c>
+      <c r="B147">
+        <v>28.83484869018212</v>
+      </c>
+      <c r="C147">
+        <v>77.16292674695535</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45698.10138888889</v>
+      </c>
+      <c r="B148">
+        <v>20.45869870704806</v>
+      </c>
+      <c r="C148">
+        <v>118.3201676295758</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45698.10208333333</v>
+      </c>
+      <c r="B149">
+        <v>29.5241768391605</v>
+      </c>
+      <c r="C149">
+        <v>94.06130553873521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45698.10277777778</v>
+      </c>
+      <c r="B150">
+        <v>19.31332789167989</v>
+      </c>
+      <c r="C150">
+        <v>76.13151854924297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45698.10347222222</v>
+      </c>
+      <c r="B151">
+        <v>17.3820319989124</v>
+      </c>
+      <c r="C151">
+        <v>78.19312712020053</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45698.10416666666</v>
+      </c>
+      <c r="B152">
+        <v>17.11763401631071</v>
+      </c>
+      <c r="C152">
+        <v>110.3555516137647</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45698.10486111111</v>
+      </c>
+      <c r="B153">
+        <v>21.78366223155812</v>
+      </c>
+      <c r="C153">
+        <v>77.14171106124654</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45698.10555555556</v>
+      </c>
+      <c r="B154">
+        <v>25.11390655236661</v>
+      </c>
+      <c r="C154">
+        <v>107.1527531519961</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45698.10625</v>
+      </c>
+      <c r="B155">
+        <v>15.75238343071498</v>
+      </c>
+      <c r="C155">
+        <v>75.92575143019128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45698.10694444444</v>
+      </c>
+      <c r="B156">
+        <v>17.08816772410096</v>
+      </c>
+      <c r="C156">
+        <v>113.9003184283786</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45698.10763888889</v>
+      </c>
+      <c r="B157">
+        <v>21.44775248687597</v>
+      </c>
+      <c r="C157">
+        <v>110.3439767945884</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45698.10833333333</v>
+      </c>
+      <c r="B158">
+        <v>23.48818205641153</v>
+      </c>
+      <c r="C158">
+        <v>89.31278088301517</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45698.10902777778</v>
+      </c>
+      <c r="B159">
+        <v>28.98001528325982</v>
+      </c>
+      <c r="C159">
+        <v>90.95784650976495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45698.10972222222</v>
+      </c>
+      <c r="B160">
+        <v>5.145635635120513</v>
+      </c>
+      <c r="C160">
+        <v>97.0522741199066</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45698.11041666667</v>
+      </c>
+      <c r="B161">
+        <v>21.22743234851504</v>
+      </c>
+      <c r="C161">
+        <v>120.3623775737489</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45698.11111111111</v>
+      </c>
+      <c r="B162">
+        <v>17.94143946881077</v>
+      </c>
+      <c r="C162">
+        <v>92.55493146268195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45698.11180555556</v>
+      </c>
+      <c r="B163">
+        <v>12.2117121334085</v>
+      </c>
+      <c r="C163">
+        <v>91.92095397002592</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45698.1125</v>
+      </c>
+      <c r="B164">
+        <v>15.71036690975248</v>
+      </c>
+      <c r="C164">
+        <v>88.6685335277504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45698.11319444444</v>
+      </c>
+      <c r="B165">
+        <v>22.36710852432778</v>
+      </c>
+      <c r="C165">
+        <v>111.8662249772817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45698.11388888889</v>
+      </c>
+      <c r="B166">
+        <v>17.44264172051715</v>
+      </c>
+      <c r="C166">
+        <v>106.517265983963</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45698.11458333334</v>
+      </c>
+      <c r="B167">
+        <v>20.58112109924025</v>
+      </c>
+      <c r="C167">
+        <v>101.9178977053124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45698.11527777778</v>
+      </c>
+      <c r="B168">
+        <v>15.92679482987945</v>
+      </c>
+      <c r="C168">
+        <v>95.0791148905099</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45698.11597222222</v>
+      </c>
+      <c r="B169">
+        <v>22.54130247754241</v>
+      </c>
+      <c r="C169">
+        <v>95.73910256717504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45698.11666666667</v>
+      </c>
+      <c r="B170">
+        <v>19.54490856744729</v>
+      </c>
+      <c r="C170">
+        <v>120.6173668691594</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45698.11736111111</v>
+      </c>
+      <c r="B171">
+        <v>13.93581436655898</v>
+      </c>
+      <c r="C171">
+        <v>127.8303716098757</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45698.11805555555</v>
+      </c>
+      <c r="B172">
+        <v>29.70455595749579</v>
+      </c>
+      <c r="C172">
+        <v>98.8200781579301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45698.11875</v>
+      </c>
+      <c r="B173">
+        <v>15.74941118005186</v>
+      </c>
+      <c r="C173">
+        <v>100.7752728770903</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45698.11944444444</v>
+      </c>
+      <c r="B174">
+        <v>16.45005305474917</v>
+      </c>
+      <c r="C174">
+        <v>150.3925702754222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45698.12013888889</v>
+      </c>
+      <c r="B175">
+        <v>24.53431056315351</v>
+      </c>
+      <c r="C175">
+        <v>86.35555704033536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45698.12083333333</v>
+      </c>
+      <c r="B176">
+        <v>30.77306169188655</v>
+      </c>
+      <c r="C176">
+        <v>95.78786156362824</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45698.12152777778</v>
+      </c>
+      <c r="B177">
+        <v>27.56830021988721</v>
+      </c>
+      <c r="C177">
+        <v>96.24680209621798</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45698.12222222222</v>
+      </c>
+      <c r="B178">
+        <v>18.68345124313048</v>
+      </c>
+      <c r="C178">
+        <v>82.24497642084562</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45698.12291666667</v>
+      </c>
+      <c r="B179">
+        <v>19.22823277085274</v>
+      </c>
+      <c r="C179">
+        <v>98.66044888747444</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45698.12361111111</v>
+      </c>
+      <c r="B180">
+        <v>12.50606973595299</v>
+      </c>
+      <c r="C180">
+        <v>113.700510615654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45698.12430555555</v>
+      </c>
+      <c r="B181">
+        <v>19.95715512142681</v>
+      </c>
+      <c r="C181">
+        <v>64.53537358049583</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45698.125</v>
+      </c>
+      <c r="B182">
+        <v>25.42541217774256</v>
+      </c>
+      <c r="C182">
+        <v>104.1439012559802</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45698.12569444445</v>
+      </c>
+      <c r="B183">
+        <v>27.44025766024658</v>
+      </c>
+      <c r="C183">
+        <v>90.3466086390615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45698.12638888889</v>
+      </c>
+      <c r="B184">
+        <v>22.17622894631009</v>
+      </c>
+      <c r="C184">
+        <v>101.04236723676</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45698.12708333333</v>
+      </c>
+      <c r="B185">
+        <v>19.15867571653041</v>
+      </c>
+      <c r="C185">
+        <v>99.9596332784073</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45698.12777777778</v>
+      </c>
+      <c r="B186">
+        <v>7.393101362703316</v>
+      </c>
+      <c r="C186">
+        <v>126.0950005985563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45698.12847222222</v>
+      </c>
+      <c r="B187">
+        <v>18.90208644942467</v>
+      </c>
+      <c r="C187">
+        <v>47.76248652545912</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45698.12916666667</v>
+      </c>
+      <c r="B188">
+        <v>16.91040162796765</v>
+      </c>
+      <c r="C188">
+        <v>88.99135676752431</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45698.12986111111</v>
+      </c>
+      <c r="B189">
+        <v>21.96494172130967</v>
+      </c>
+      <c r="C189">
+        <v>85.76470636234987</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45698.13055555556</v>
+      </c>
+      <c r="B190">
+        <v>15.77904991566911</v>
+      </c>
+      <c r="C190">
+        <v>124.197812652393</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45698.13125</v>
+      </c>
+      <c r="B191">
+        <v>20.33236326796944</v>
+      </c>
+      <c r="C191">
+        <v>92.26704634524414</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45698.13194444445</v>
+      </c>
+      <c r="B192">
+        <v>16.6651040553772</v>
+      </c>
+      <c r="C192">
+        <v>82.79707711437931</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45698.13263888889</v>
+      </c>
+      <c r="B193">
+        <v>14.93048724482821</v>
+      </c>
+      <c r="C193">
+        <v>85.37399483568149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45698.13333333333</v>
+      </c>
+      <c r="B194">
+        <v>16.18349984288789</v>
+      </c>
+      <c r="C194">
+        <v>80.18367970161722</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45698.13402777778</v>
+      </c>
+      <c r="B195">
+        <v>13.54097088770085</v>
+      </c>
+      <c r="C195">
+        <v>98.81860560038278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45698.13472222222</v>
+      </c>
+      <c r="B196">
+        <v>8.28616006747875</v>
+      </c>
+      <c r="C196">
+        <v>114.2746206758752</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45698.13541666666</v>
+      </c>
+      <c r="B197">
+        <v>20.43602392117315</v>
+      </c>
+      <c r="C197">
+        <v>86.25724669191098</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45698.13611111111</v>
+      </c>
+      <c r="B198">
+        <v>16.56140961997941</v>
+      </c>
+      <c r="C198">
+        <v>83.18869496168954</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45698.13680555556</v>
+      </c>
+      <c r="B199">
+        <v>24.14197472510568</v>
+      </c>
+      <c r="C199">
+        <v>125.4105383982846</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45698.1375</v>
+      </c>
+      <c r="B200">
+        <v>21.2913339769795</v>
+      </c>
+      <c r="C200">
+        <v>86.47402748448303</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45698.13819444444</v>
+      </c>
+      <c r="B201">
+        <v>19.45589483734111</v>
+      </c>
+      <c r="C201">
+        <v>52.9215292679861</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45698.13888888889</v>
+      </c>
+      <c r="B202">
+        <v>16.02093046404863</v>
+      </c>
+      <c r="C202">
+        <v>107.2726451480657</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45698.13958333333</v>
+      </c>
+      <c r="B203">
+        <v>24.12542709260879</v>
+      </c>
+      <c r="C203">
+        <v>115.7472152899022</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45698.14027777778</v>
+      </c>
+      <c r="B204">
+        <v>18.30921822267225</v>
+      </c>
+      <c r="C204">
+        <v>103.2640506998351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45698.14097222222</v>
+      </c>
+      <c r="B205">
+        <v>15.57901267423367</v>
+      </c>
+      <c r="C205">
+        <v>102.539347575816</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45698.14166666667</v>
+      </c>
+      <c r="B206">
+        <v>19.25102755032283</v>
+      </c>
+      <c r="C206">
+        <v>102.4836565320279</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45698.14236111111</v>
+      </c>
+      <c r="B207">
+        <v>21.3611120046202</v>
+      </c>
+      <c r="C207">
+        <v>88.314060772099</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45698.14305555556</v>
+      </c>
+      <c r="B208">
+        <v>11.4403313043893</v>
+      </c>
+      <c r="C208">
+        <v>105.5739195648884</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45698.14375</v>
+      </c>
+      <c r="B209">
+        <v>22.79968050460444</v>
+      </c>
+      <c r="C209">
+        <v>118.7618871658154</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45698.14444444444</v>
+      </c>
+      <c r="B210">
+        <v>24.61929330411181</v>
+      </c>
+      <c r="C210">
+        <v>103.1802974584291</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45698.14513888889</v>
+      </c>
+      <c r="B211">
+        <v>23.14426288013491</v>
+      </c>
+      <c r="C211">
+        <v>102.7221488912364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45698.14583333334</v>
+      </c>
+      <c r="B212">
+        <v>34.45862922464706</v>
+      </c>
+      <c r="C212">
+        <v>69.45188954640784</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45698.14652777778</v>
+      </c>
+      <c r="B213">
+        <v>13.66401354337398</v>
+      </c>
+      <c r="C213">
+        <v>100.596418787999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45698.14722222222</v>
+      </c>
+      <c r="B214">
+        <v>21.07709985960087</v>
+      </c>
+      <c r="C214">
+        <v>151.7922986811801</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45698.14791666667</v>
+      </c>
+      <c r="B215">
+        <v>17.76037928582923</v>
+      </c>
+      <c r="C215">
+        <v>124.7655444240066</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45698.14861111111</v>
+      </c>
+      <c r="B216">
+        <v>14.16468159328577</v>
+      </c>
+      <c r="C216">
+        <v>91.38259237106352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45698.14930555555</v>
+      </c>
+      <c r="B217">
+        <v>20.0585831898942</v>
+      </c>
+      <c r="C217">
+        <v>73.16206122142154</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45698.15</v>
+      </c>
+      <c r="B218">
+        <v>17.19334347364284</v>
+      </c>
+      <c r="C218">
+        <v>83.50845451589508</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45698.15069444444</v>
+      </c>
+      <c r="B219">
+        <v>20.75535785084647</v>
+      </c>
+      <c r="C219">
+        <v>90.66106981264343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45698.15138888889</v>
+      </c>
+      <c r="B220">
+        <v>26.85800775179235</v>
+      </c>
+      <c r="C220">
+        <v>104.4540367680145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45698.15208333333</v>
+      </c>
+      <c r="B221">
+        <v>19.49997209519514</v>
+      </c>
+      <c r="C221">
+        <v>105.7096287750371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45698.15277777778</v>
+      </c>
+      <c r="B222">
+        <v>16.92476937319788</v>
+      </c>
+      <c r="C222">
+        <v>83.91263363376618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45698.15347222222</v>
+      </c>
+      <c r="B223">
+        <v>26.01970461740585</v>
+      </c>
+      <c r="C223">
+        <v>98.7035748701114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45698.15416666667</v>
+      </c>
+      <c r="B224">
+        <v>20.72242510067302</v>
+      </c>
+      <c r="C224">
+        <v>102.0408588765779</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45698.15486111111</v>
+      </c>
+      <c r="B225">
+        <v>15.04249074496361</v>
+      </c>
+      <c r="C225">
+        <v>79.56496131042492</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45698.15555555555</v>
+      </c>
+      <c r="B226">
+        <v>23.36205131189084</v>
+      </c>
+      <c r="C226">
+        <v>120.2610687018498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45698.15625</v>
+      </c>
+      <c r="B227">
+        <v>21.3855831063654</v>
+      </c>
+      <c r="C227">
+        <v>122.4401263456395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45698.15694444445</v>
+      </c>
+      <c r="B228">
+        <v>30.61872663652728</v>
+      </c>
+      <c r="C228">
+        <v>121.8786558324145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45698.15763888889</v>
+      </c>
+      <c r="B229">
+        <v>18.28224450879513</v>
+      </c>
+      <c r="C229">
+        <v>78.85839475460406</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45698.15833333333</v>
+      </c>
+      <c r="B230">
+        <v>28.55565681831548</v>
+      </c>
+      <c r="C230">
+        <v>77.89298941249766</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45698.15902777778</v>
+      </c>
+      <c r="B231">
+        <v>17.30725410028712</v>
+      </c>
+      <c r="C231">
+        <v>121.0386708732126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45698.15972222222</v>
+      </c>
+      <c r="B232">
+        <v>23.4732214377654</v>
+      </c>
+      <c r="C232">
+        <v>108.8192725101012</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45698.16041666667</v>
+      </c>
+      <c r="B233">
+        <v>18.32856783928475</v>
+      </c>
+      <c r="C233">
+        <v>91.34713009305332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45698.16111111111</v>
+      </c>
+      <c r="B234">
+        <v>27.99165161778807</v>
+      </c>
+      <c r="C234">
+        <v>90.49651850715642</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45698.16180555556</v>
+      </c>
+      <c r="B235">
+        <v>18.80619235683543</v>
+      </c>
+      <c r="C235">
+        <v>64.40228839763651</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45698.1625</v>
+      </c>
+      <c r="B236">
+        <v>24.29536878570554</v>
+      </c>
+      <c r="C236">
+        <v>97.16956148777116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45698.16319444445</v>
+      </c>
+      <c r="B237">
+        <v>25.6242059616564</v>
+      </c>
+      <c r="C237">
+        <v>84.42362527103064</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45698.16388888889</v>
+      </c>
+      <c r="B238">
+        <v>26.03510835468841</v>
+      </c>
+      <c r="C238">
+        <v>104.6803257987309</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45698.16458333333</v>
+      </c>
+      <c r="B239">
+        <v>18.24441159579156</v>
+      </c>
+      <c r="C239">
+        <v>88.10077081987399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45698.16527777778</v>
+      </c>
+      <c r="B240">
+        <v>13.51852673505499</v>
+      </c>
+      <c r="C240">
+        <v>70.97783914523146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45698.16597222222</v>
+      </c>
+      <c r="B241">
+        <v>21.63054342609652</v>
+      </c>
+      <c r="C241">
+        <v>94.68401440368933</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45698.16666666666</v>
+      </c>
+      <c r="B242">
+        <v>29.899896039881</v>
+      </c>
+      <c r="C242">
+        <v>83.44738302965182</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45698.16736111111</v>
+      </c>
+      <c r="B243">
+        <v>19.63853757336212</v>
+      </c>
+      <c r="C243">
+        <v>118.1397063583802</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45698.16805555556</v>
+      </c>
+      <c r="B244">
+        <v>28.99617588026498</v>
+      </c>
+      <c r="C244">
+        <v>93.30557404771726</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45698.16875</v>
+      </c>
+      <c r="B245">
+        <v>20.90727424413059</v>
+      </c>
+      <c r="C245">
+        <v>119.8993530131646</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45698.16944444444</v>
+      </c>
+      <c r="B246">
+        <v>24.70755410053457</v>
+      </c>
+      <c r="C246">
+        <v>99.46420336970581</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45698.17013888889</v>
+      </c>
+      <c r="B247">
+        <v>29.61707147194154</v>
+      </c>
+      <c r="C247">
+        <v>125.3843761631673</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45698.17083333333</v>
+      </c>
+      <c r="B248">
+        <v>21.34753344687933</v>
+      </c>
+      <c r="C248">
+        <v>111.9215580737626</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45698.17152777778</v>
+      </c>
+      <c r="B249">
+        <v>22.04692422125467</v>
+      </c>
+      <c r="C249">
+        <v>90.46989348135976</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45698.17222222222</v>
+      </c>
+      <c r="B250">
+        <v>20.2762386388452</v>
+      </c>
+      <c r="C250">
+        <v>123.4366070474022</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45698.17291666667</v>
+      </c>
+      <c r="B251">
+        <v>16.32651414821213</v>
+      </c>
+      <c r="C251">
+        <v>147.5952257530829</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45698.17361111111</v>
+      </c>
+      <c r="B252">
+        <v>23.32537359930035</v>
+      </c>
+      <c r="C252">
+        <v>61.73531390236783</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45698.17430555556</v>
+      </c>
+      <c r="B253">
+        <v>18.9398263244772</v>
+      </c>
+      <c r="C253">
+        <v>103.9071221907463</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45698.175</v>
+      </c>
+      <c r="B254">
+        <v>26.24764136508742</v>
+      </c>
+      <c r="C254">
+        <v>104.3315667763536</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45698.17569444444</v>
+      </c>
+      <c r="B255">
+        <v>21.56852988197627</v>
+      </c>
+      <c r="C255">
+        <v>90.69079175232311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45698.17638888889</v>
+      </c>
+      <c r="B256">
+        <v>21.32026903089104</v>
+      </c>
+      <c r="C256">
+        <v>94.63800479902696</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45698.17708333334</v>
+      </c>
+      <c r="B257">
+        <v>18.78309764761313</v>
+      </c>
+      <c r="C257">
+        <v>100.2944193776756</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45698.17777777778</v>
+      </c>
+      <c r="B258">
+        <v>20.8393754332162</v>
+      </c>
+      <c r="C258">
+        <v>101.1733744247718</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45698.17847222222</v>
+      </c>
+      <c r="B259">
+        <v>19.92520450458349</v>
+      </c>
+      <c r="C259">
+        <v>115.4442091629243</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45698.17916666667</v>
+      </c>
+      <c r="B260">
+        <v>26.4327794073609</v>
+      </c>
+      <c r="C260">
+        <v>123.5062632481124</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45698.17986111111</v>
+      </c>
+      <c r="B261">
+        <v>27.45700372840312</v>
+      </c>
+      <c r="C261">
+        <v>112.5544842838016</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45698.18055555555</v>
+      </c>
+      <c r="B262">
+        <v>21.7506979108017</v>
+      </c>
+      <c r="C262">
+        <v>100.577046048554</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45698.18125</v>
+      </c>
+      <c r="B263">
+        <v>18.41880535206483</v>
+      </c>
+      <c r="C263">
+        <v>126.2852832533544</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45698.18194444444</v>
+      </c>
+      <c r="B264">
+        <v>22.74491833515806</v>
+      </c>
+      <c r="C264">
+        <v>112.4079584761035</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45698.18263888889</v>
+      </c>
+      <c r="B265">
+        <v>12.66550462899301</v>
+      </c>
+      <c r="C265">
+        <v>80.71163159727641</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45698.18333333333</v>
+      </c>
+      <c r="B266">
+        <v>29.0884597322796</v>
+      </c>
+      <c r="C266">
+        <v>106.2885337878816</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45698.18402777778</v>
+      </c>
+      <c r="B267">
+        <v>23.68748657691971</v>
+      </c>
+      <c r="C267">
+        <v>64.33466870421827</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45698.18472222222</v>
+      </c>
+      <c r="B268">
+        <v>11.94514854509702</v>
+      </c>
+      <c r="C268">
+        <v>90.78034294641867</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45698.18541666667</v>
+      </c>
+      <c r="B269">
+        <v>13.35389905130638</v>
+      </c>
+      <c r="C269">
+        <v>98.54902733830512</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45698.18611111111</v>
+      </c>
+      <c r="B270">
+        <v>18.67981292321526</v>
+      </c>
+      <c r="C270">
+        <v>100.3480944376743</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45698.18680555555</v>
+      </c>
+      <c r="B271">
+        <v>16.32474652734222</v>
+      </c>
+      <c r="C271">
+        <v>91.53050649977146</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45698.1875</v>
+      </c>
+      <c r="B272">
+        <v>21.06476382426786</v>
+      </c>
+      <c r="C272">
+        <v>70.86271727346164</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45698.18819444445</v>
+      </c>
+      <c r="B273">
+        <v>22.31296024288636</v>
+      </c>
+      <c r="C273">
+        <v>89.03319903555989</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45698.18888888889</v>
+      </c>
+      <c r="B274">
+        <v>23.30053462574675</v>
+      </c>
+      <c r="C274">
+        <v>109.290791493027</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45698.18958333333</v>
+      </c>
+      <c r="B275">
+        <v>20.9877333809222</v>
+      </c>
+      <c r="C275">
+        <v>99.04941851413761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45698.19027777778</v>
+      </c>
+      <c r="B276">
+        <v>22.29161223009641</v>
+      </c>
+      <c r="C276">
+        <v>74.79118346344123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45698.19097222222</v>
+      </c>
+      <c r="B277">
+        <v>16.08195488989627</v>
+      </c>
+      <c r="C277">
+        <v>82.61917429794187</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45698.19166666667</v>
+      </c>
+      <c r="B278">
+        <v>16.03020269269397</v>
+      </c>
+      <c r="C278">
+        <v>67.99988094774784</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45698.19236111111</v>
+      </c>
+      <c r="B279">
+        <v>23.95759131862766</v>
+      </c>
+      <c r="C279">
+        <v>77.39361683571101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45698.19305555556</v>
+      </c>
+      <c r="B280">
+        <v>15.21410010961751</v>
+      </c>
+      <c r="C280">
+        <v>73.24907848982997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45698.19375</v>
+      </c>
+      <c r="B281">
+        <v>15.67925245267485</v>
+      </c>
+      <c r="C281">
+        <v>112.0891877016304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45698.19444444445</v>
+      </c>
+      <c r="B282">
+        <v>16.08777270801515</v>
+      </c>
+      <c r="C282">
+        <v>92.57241699203547</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45698.19513888889</v>
+      </c>
+      <c r="B283">
+        <v>16.40723874622135</v>
+      </c>
+      <c r="C283">
+        <v>110.8297355715302</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45698.19583333333</v>
+      </c>
+      <c r="B284">
+        <v>23.24538365348492</v>
+      </c>
+      <c r="C284">
+        <v>101.2536888406847</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45698.19652777778</v>
+      </c>
+      <c r="B285">
+        <v>16.28818783277121</v>
+      </c>
+      <c r="C285">
+        <v>124.7232365589418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45698.19722222222</v>
+      </c>
+      <c r="B286">
+        <v>20.53375969784562</v>
+      </c>
+      <c r="C286">
+        <v>65.13691867985924</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45698.19791666666</v>
+      </c>
+      <c r="B287">
+        <v>25.10401605165301</v>
+      </c>
+      <c r="C287">
+        <v>111.3642150244574</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45698.19861111111</v>
+      </c>
+      <c r="B288">
+        <v>33.99849372675665</v>
+      </c>
+      <c r="C288">
+        <v>112.5620625439171</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45698.19930555556</v>
+      </c>
+      <c r="B289">
+        <v>19.23686541555744</v>
+      </c>
+      <c r="C289">
+        <v>99.36106323951483</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45698.2</v>
+      </c>
+      <c r="B290">
+        <v>11.88439662088403</v>
+      </c>
+      <c r="C290">
+        <v>108.8023831726441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45698.20069444444</v>
+      </c>
+      <c r="B291">
+        <v>14.60561279202638</v>
+      </c>
+      <c r="C291">
+        <v>74.14184900709786</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45698.20138888889</v>
+      </c>
+      <c r="B292">
+        <v>19.75840410063115</v>
+      </c>
+      <c r="C292">
+        <v>93.79252062343384</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45698.20208333333</v>
+      </c>
+      <c r="B293">
+        <v>22.9657896527006</v>
+      </c>
+      <c r="C293">
+        <v>100.5433336699427</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45698.20277777778</v>
+      </c>
+      <c r="B294">
+        <v>27.28850267962466</v>
+      </c>
+      <c r="C294">
+        <v>128.2104171442688</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45698.20347222222</v>
+      </c>
+      <c r="B295">
+        <v>30.88076431122296</v>
+      </c>
+      <c r="C295">
+        <v>82.30328421826452</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45698.20416666667</v>
+      </c>
+      <c r="B296">
+        <v>19.60740886111095</v>
+      </c>
+      <c r="C296">
+        <v>121.8136653859554</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45698.20486111111</v>
+      </c>
+      <c r="B297">
+        <v>18.79740717723197</v>
+      </c>
+      <c r="C297">
+        <v>53.56760719741742</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45698.20555555556</v>
+      </c>
+      <c r="B298">
+        <v>17.6384941906139</v>
+      </c>
+      <c r="C298">
+        <v>110.9873509487019</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45698.20625</v>
+      </c>
+      <c r="B299">
+        <v>21.01492796990417</v>
+      </c>
+      <c r="C299">
+        <v>106.1008719529662</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45698.20694444444</v>
+      </c>
+      <c r="B300">
+        <v>22.82345091196565</v>
+      </c>
+      <c r="C300">
+        <v>105.1753470602931</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45698.20763888889</v>
+      </c>
+      <c r="B301">
+        <v>13.73758891293285</v>
+      </c>
+      <c r="C301">
+        <v>85.00076642347216</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>45698.20833333334</v>
+      </c>
+      <c r="B302">
+        <v>27.36453630536953</v>
+      </c>
+      <c r="C302">
+        <v>113.2792946433745</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>45698.20902777778</v>
+      </c>
+      <c r="B303">
+        <v>17.51542346206586</v>
+      </c>
+      <c r="C303">
+        <v>93.81675605081602</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>45698.20972222222</v>
+      </c>
+      <c r="B304">
+        <v>17.90780736167577</v>
+      </c>
+      <c r="C304">
+        <v>96.99629116259679</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>45698.21041666667</v>
+      </c>
+      <c r="B305">
+        <v>17.3680889904015</v>
+      </c>
+      <c r="C305">
+        <v>123.9821914270215</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>45698.21111111111</v>
+      </c>
+      <c r="B306">
+        <v>15.66250938370046</v>
+      </c>
+      <c r="C306">
+        <v>57.59626554250254</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>45698.21180555555</v>
+      </c>
+      <c r="B307">
+        <v>24.17930498695</v>
+      </c>
+      <c r="C307">
+        <v>83.41306874688144</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>45698.2125</v>
+      </c>
+      <c r="B308">
+        <v>25.36536149374411</v>
+      </c>
+      <c r="C308">
+        <v>43.79817597179186</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>45698.21319444444</v>
+      </c>
+      <c r="B309">
+        <v>19.47512283210419</v>
+      </c>
+      <c r="C309">
+        <v>125.5152348682896</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>45698.21388888889</v>
+      </c>
+      <c r="B310">
+        <v>19.22055873551472</v>
+      </c>
+      <c r="C310">
+        <v>107.3646736046487</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>45698.21458333333</v>
+      </c>
+      <c r="B311">
+        <v>18.5075858568878</v>
+      </c>
+      <c r="C311">
+        <v>129.1601167925481</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>45698.21527777778</v>
+      </c>
+      <c r="B312">
+        <v>18.43343082457909</v>
+      </c>
+      <c r="C312">
+        <v>79.49769339910326</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>45698.21597222222</v>
+      </c>
+      <c r="B313">
+        <v>14.73026255783184</v>
+      </c>
+      <c r="C313">
+        <v>96.6543805226468</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>45698.21666666667</v>
+      </c>
+      <c r="B314">
+        <v>13.69346760561082</v>
+      </c>
+      <c r="C314">
+        <v>82.52750039002653</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>45698.21736111111</v>
+      </c>
+      <c r="B315">
+        <v>13.09165891107521</v>
+      </c>
+      <c r="C315">
+        <v>103.0748723872707</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>45698.21805555555</v>
+      </c>
+      <c r="B316">
+        <v>16.70259758727923</v>
+      </c>
+      <c r="C316">
+        <v>104.4673301002485</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>45698.21875</v>
+      </c>
+      <c r="B317">
+        <v>23.05954089861783</v>
+      </c>
+      <c r="C317">
+        <v>78.52836895241353</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>45698.21944444445</v>
+      </c>
+      <c r="B318">
+        <v>22.97736404240562</v>
+      </c>
+      <c r="C318">
+        <v>82.88146686728575</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>45698.22013888889</v>
+      </c>
+      <c r="B319">
+        <v>18.67460634779962</v>
+      </c>
+      <c r="C319">
+        <v>77.56392584185704</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>45698.22083333333</v>
+      </c>
+      <c r="B320">
+        <v>15.57410912456067</v>
+      </c>
+      <c r="C320">
+        <v>124.2735141887431</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>45698.22152777778</v>
+      </c>
+      <c r="B321">
+        <v>23.40920337709782</v>
+      </c>
+      <c r="C321">
+        <v>85.60593477164227</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>45698.22222222222</v>
+      </c>
+      <c r="B322">
+        <v>23.17769313445093</v>
+      </c>
+      <c r="C322">
+        <v>60.67603924331164</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>45698.22291666667</v>
+      </c>
+      <c r="B323">
+        <v>15.33392073445662</v>
+      </c>
+      <c r="C323">
+        <v>93.77300676234371</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>45698.22361111111</v>
+      </c>
+      <c r="B324">
+        <v>22.63845825075105</v>
+      </c>
+      <c r="C324">
+        <v>83.69815113022389</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>45698.22430555556</v>
+      </c>
+      <c r="B325">
+        <v>14.72662961407363</v>
+      </c>
+      <c r="C325">
+        <v>117.569431937511</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>45698.225</v>
+      </c>
+      <c r="B326">
+        <v>22.86170312455702</v>
+      </c>
+      <c r="C326">
+        <v>76.36875795134971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>45698.22569444445</v>
+      </c>
+      <c r="B327">
+        <v>26.95815941141622</v>
+      </c>
+      <c r="C327">
+        <v>100.333122978264</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>45698.22638888889</v>
+      </c>
+      <c r="B328">
+        <v>17.17896886021803</v>
+      </c>
+      <c r="C328">
+        <v>139.6274548812194</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>45698.22708333333</v>
+      </c>
+      <c r="B329">
+        <v>29.0948873274999</v>
+      </c>
+      <c r="C329">
+        <v>108.1999905269563</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>45698.22777777778</v>
+      </c>
+      <c r="B330">
+        <v>21.70182342516963</v>
+      </c>
+      <c r="C330">
+        <v>73.11523577832661</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>45698.22847222222</v>
+      </c>
+      <c r="B331">
+        <v>23.0066401624117</v>
+      </c>
+      <c r="C331">
+        <v>57.89927397933313</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>45698.22916666666</v>
+      </c>
+      <c r="B332">
+        <v>10.43003559782405</v>
+      </c>
+      <c r="C332">
+        <v>88.6959441918995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>45698.22986111111</v>
+      </c>
+      <c r="B333">
+        <v>19.11227246629531</v>
+      </c>
+      <c r="C333">
+        <v>108.6158673023013</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>45698.23055555556</v>
+      </c>
+      <c r="B334">
+        <v>30.13782443029305</v>
+      </c>
+      <c r="C334">
+        <v>79.91243107095127</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>45698.23125</v>
+      </c>
+      <c r="B335">
+        <v>23.24892816834289</v>
+      </c>
+      <c r="C335">
+        <v>97.80083386366181</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>45698.23194444444</v>
+      </c>
+      <c r="B336">
+        <v>25.30173770653766</v>
+      </c>
+      <c r="C336">
+        <v>105.3828289186194</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>45698.23263888889</v>
+      </c>
+      <c r="B337">
+        <v>19.31084000580988</v>
+      </c>
+      <c r="C337">
+        <v>128.9930770765118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>45698.23333333333</v>
+      </c>
+      <c r="B338">
+        <v>26.61784575586549</v>
+      </c>
+      <c r="C338">
+        <v>54.6886266167412</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>45698.23402777778</v>
+      </c>
+      <c r="B339">
+        <v>26.47346859395785</v>
+      </c>
+      <c r="C339">
+        <v>97.9279100076065</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>45698.23472222222</v>
+      </c>
+      <c r="B340">
+        <v>9.291137976445409</v>
+      </c>
+      <c r="C340">
+        <v>107.992068666332</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>45698.23541666667</v>
+      </c>
+      <c r="B341">
+        <v>22.52012082017356</v>
+      </c>
+      <c r="C341">
+        <v>87.56914017225455</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>45698.23611111111</v>
+      </c>
+      <c r="B342">
+        <v>23.56997800788571</v>
+      </c>
+      <c r="C342">
+        <v>99.99287607859543</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>45698.23680555556</v>
+      </c>
+      <c r="B343">
+        <v>16.07717299344285</v>
+      </c>
+      <c r="C343">
+        <v>97.1207794384533</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>45698.2375</v>
+      </c>
+      <c r="B344">
+        <v>15.40165273352801</v>
+      </c>
+      <c r="C344">
+        <v>78.94672642565121</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>45698.23819444444</v>
+      </c>
+      <c r="B345">
+        <v>14.96039874380923</v>
+      </c>
+      <c r="C345">
+        <v>104.1944461175495</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>45698.23888888889</v>
+      </c>
+      <c r="B346">
+        <v>24.11313912528096</v>
+      </c>
+      <c r="C346">
+        <v>97.50172965037798</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>45698.23958333334</v>
+      </c>
+      <c r="B347">
+        <v>21.89541194609877</v>
+      </c>
+      <c r="C347">
+        <v>115.8660245076982</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>45698.24027777778</v>
+      </c>
+      <c r="B348">
+        <v>15.05871539000981</v>
+      </c>
+      <c r="C348">
+        <v>72.63014341998479</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>45698.24097222222</v>
+      </c>
+      <c r="B349">
+        <v>21.38981943602516</v>
+      </c>
+      <c r="C349">
+        <v>119.760025410908</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>45698.24166666667</v>
+      </c>
+      <c r="B350">
+        <v>16.86135905700516</v>
+      </c>
+      <c r="C350">
+        <v>90.4376979613875</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>45698.24236111111</v>
+      </c>
+      <c r="B351">
+        <v>24.33334954217777</v>
+      </c>
+      <c r="C351">
+        <v>75.80430311171375</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>45698.24305555555</v>
+      </c>
+      <c r="B352">
+        <v>20.14094638175315</v>
+      </c>
+      <c r="C352">
+        <v>98.71278521855145</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>45698.24375</v>
+      </c>
+      <c r="B353">
+        <v>20.05519660751364</v>
+      </c>
+      <c r="C353">
+        <v>64.4546261946997</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>45698.24444444444</v>
+      </c>
+      <c r="B354">
+        <v>19.22751938829767</v>
+      </c>
+      <c r="C354">
+        <v>93.86823494631079</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>45698.24513888889</v>
+      </c>
+      <c r="B355">
+        <v>19.48557120723067</v>
+      </c>
+      <c r="C355">
+        <v>141.7264157990484</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>45698.24583333333</v>
+      </c>
+      <c r="B356">
+        <v>17.12285684420241</v>
+      </c>
+      <c r="C356">
+        <v>101.2217336123475</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>45698.24652777778</v>
+      </c>
+      <c r="B357">
+        <v>23.1488063479515</v>
+      </c>
+      <c r="C357">
+        <v>91.47853652375896</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>45698.24722222222</v>
+      </c>
+      <c r="B358">
+        <v>25.22126389991943</v>
+      </c>
+      <c r="C358">
+        <v>121.1019619016755</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>45698.24791666667</v>
+      </c>
+      <c r="B359">
+        <v>17.74552035651682</v>
+      </c>
+      <c r="C359">
+        <v>102.3829969071022</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>45698.24861111111</v>
+      </c>
+      <c r="B360">
+        <v>15.00120284514379</v>
+      </c>
+      <c r="C360">
+        <v>92.33374914077314</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>45698.24930555555</v>
+      </c>
+      <c r="B361">
+        <v>17.5879884069472</v>
+      </c>
+      <c r="C361">
+        <v>125.155089980433</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>45698.25</v>
+      </c>
+      <c r="B362">
+        <v>18.84150873753276</v>
+      </c>
+      <c r="C362">
+        <v>107.8388974023237</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>45698.25069444445</v>
+      </c>
+      <c r="B363">
+        <v>18.48292608770189</v>
+      </c>
+      <c r="C363">
+        <v>97.68282108100824</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>45698.25138888889</v>
+      </c>
+      <c r="B364">
+        <v>15.59928277487274</v>
+      </c>
+      <c r="C364">
+        <v>87.43378064104402</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>45698.25208333333</v>
+      </c>
+      <c r="B365">
+        <v>8.726844121930654</v>
+      </c>
+      <c r="C365">
+        <v>85.48389851608374</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>45698.25277777778</v>
+      </c>
+      <c r="B366">
+        <v>23.91270375556255</v>
+      </c>
+      <c r="C366">
+        <v>89.53105743146391</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>45698.25347222222</v>
+      </c>
+      <c r="B367">
+        <v>23.24302523069965</v>
+      </c>
+      <c r="C367">
+        <v>83.57664029328041</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>45698.25416666667</v>
+      </c>
+      <c r="B368">
+        <v>24.86090873383189</v>
+      </c>
+      <c r="C368">
+        <v>85.49737192321578</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>45698.25486111111</v>
+      </c>
+      <c r="B369">
+        <v>25.7393767242438</v>
+      </c>
+      <c r="C369">
+        <v>100.0463816155476</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>45698.25555555556</v>
+      </c>
+      <c r="B370">
+        <v>25.1888651526588</v>
+      </c>
+      <c r="C370">
+        <v>97.79997561942687</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>45698.25625</v>
+      </c>
+      <c r="B371">
+        <v>10.7379657705634</v>
+      </c>
+      <c r="C371">
+        <v>62.99430828507503</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>45698.25694444445</v>
+      </c>
+      <c r="B372">
+        <v>21.23438164564949</v>
+      </c>
+      <c r="C372">
+        <v>107.4936448298219</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>45698.25763888889</v>
+      </c>
+      <c r="B373">
+        <v>17.6624585943233</v>
+      </c>
+      <c r="C373">
+        <v>88.81768358633833</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>45698.25833333333</v>
+      </c>
+      <c r="B374">
+        <v>20.70426084343578</v>
+      </c>
+      <c r="C374">
+        <v>135.0781204703258</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>45698.25902777778</v>
+      </c>
+      <c r="B375">
+        <v>27.1636711810831</v>
+      </c>
+      <c r="C375">
+        <v>95.76222744085899</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>45698.25972222222</v>
+      </c>
+      <c r="B376">
+        <v>22.81291386595182</v>
+      </c>
+      <c r="C376">
+        <v>159.324521229184</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>45698.26041666666</v>
+      </c>
+      <c r="B377">
+        <v>17.01452301537797</v>
+      </c>
+      <c r="C377">
+        <v>113.8463213529876</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>45698.26111111111</v>
+      </c>
+      <c r="B378">
+        <v>13.06158182231405</v>
+      </c>
+      <c r="C378">
+        <v>73.91052062477686</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>45698.26180555556</v>
+      </c>
+      <c r="B379">
+        <v>21.66075204593942</v>
+      </c>
+      <c r="C379">
+        <v>102.5644156010564</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>45698.2625</v>
+      </c>
+      <c r="B380">
+        <v>20.37054470596501</v>
+      </c>
+      <c r="C380">
+        <v>109.9884751436966</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>45698.26319444444</v>
+      </c>
+      <c r="B381">
+        <v>13.29854145438513</v>
+      </c>
+      <c r="C381">
+        <v>77.9814423510971</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>45698.26388888889</v>
+      </c>
+      <c r="B382">
+        <v>20.18739126213933</v>
+      </c>
+      <c r="C382">
+        <v>111.2470071566081</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>45698.26458333333</v>
+      </c>
+      <c r="B383">
+        <v>9.992534459086375</v>
+      </c>
+      <c r="C383">
+        <v>85.48378271591955</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>45698.26527777778</v>
+      </c>
+      <c r="B384">
+        <v>18.97945412666671</v>
+      </c>
+      <c r="C384">
+        <v>124.3578010179879</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>45698.26597222222</v>
+      </c>
+      <c r="B385">
+        <v>26.33158235910911</v>
+      </c>
+      <c r="C385">
+        <v>100.6641116009836</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>45698.26666666667</v>
+      </c>
+      <c r="B386">
+        <v>19.77945312071676</v>
+      </c>
+      <c r="C386">
+        <v>105.9445084602029</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>45698.26736111111</v>
+      </c>
+      <c r="B387">
+        <v>19.25318237323657</v>
+      </c>
+      <c r="C387">
+        <v>110.0663921045623</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
+        <v>45698.26805555556</v>
+      </c>
+      <c r="B388">
+        <v>27.9152819485148</v>
+      </c>
+      <c r="C388">
+        <v>81.10783890562094</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>45698.26875</v>
+      </c>
+      <c r="B389">
+        <v>22.67132514699556</v>
+      </c>
+      <c r="C389">
+        <v>100.8716529787497</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>45698.26944444444</v>
+      </c>
+      <c r="B390">
+        <v>17.13767104456655</v>
+      </c>
+      <c r="C390">
+        <v>102.2906649083929</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>45698.27013888889</v>
+      </c>
+      <c r="B391">
+        <v>8.7906629927949</v>
+      </c>
+      <c r="C391">
+        <v>103.3977869766928</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>45698.27083333334</v>
+      </c>
+      <c r="B392">
+        <v>25.34416235469187</v>
+      </c>
+      <c r="C392">
+        <v>91.87499827275894</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>45698.27152777778</v>
+      </c>
+      <c r="B393">
+        <v>21.30648809598463</v>
+      </c>
+      <c r="C393">
+        <v>73.81290302030654</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>45698.27222222222</v>
+      </c>
+      <c r="B394">
+        <v>19.14510449146563</v>
+      </c>
+      <c r="C394">
+        <v>100.4506089298104</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>45698.27291666667</v>
+      </c>
+      <c r="B395">
+        <v>17.54379314892524</v>
+      </c>
+      <c r="C395">
+        <v>66.75984516246955</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>45698.27361111111</v>
+      </c>
+      <c r="B396">
+        <v>17.74503900757012</v>
+      </c>
+      <c r="C396">
+        <v>127.094172886897</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>45698.27430555555</v>
+      </c>
+      <c r="B397">
+        <v>22.02801007659409</v>
+      </c>
+      <c r="C397">
+        <v>138.5456334313</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>45698.275</v>
+      </c>
+      <c r="B398">
+        <v>12.53139227769126</v>
+      </c>
+      <c r="C398">
+        <v>109.4308252699366</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>45698.27569444444</v>
+      </c>
+      <c r="B399">
+        <v>13.51980162066167</v>
+      </c>
+      <c r="C399">
+        <v>80.9697808824847</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>45698.27638888889</v>
+      </c>
+      <c r="B400">
+        <v>25.66696542892539</v>
+      </c>
+      <c r="C400">
+        <v>97.7197935768485</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>45698.27708333333</v>
+      </c>
+      <c r="B401">
+        <v>14.48905416886282</v>
+      </c>
+      <c r="C401">
+        <v>75.76819890715714</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>45698.27777777778</v>
+      </c>
+      <c r="B402">
+        <v>26.73431120792831</v>
+      </c>
+      <c r="C402">
+        <v>90.91524974509626</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>45698.27847222222</v>
+      </c>
+      <c r="B403">
+        <v>13.672094603944</v>
+      </c>
+      <c r="C403">
+        <v>110.2055785733575</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>45698.27916666667</v>
+      </c>
+      <c r="B404">
+        <v>25.10796909329503</v>
+      </c>
+      <c r="C404">
+        <v>88.93372383051332</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>45698.27986111111</v>
+      </c>
+      <c r="B405">
+        <v>19.03200899789289</v>
+      </c>
+      <c r="C405">
+        <v>97.20408711226374</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>45698.28055555555</v>
+      </c>
+      <c r="B406">
+        <v>27.17718107642442</v>
+      </c>
+      <c r="C406">
+        <v>85.20122277363217</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>45698.28125</v>
+      </c>
+      <c r="B407">
+        <v>18.0014071337161</v>
+      </c>
+      <c r="C407">
+        <v>79.28400999911483</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>45698.28194444445</v>
+      </c>
+      <c r="B408">
+        <v>13.30347470615678</v>
+      </c>
+      <c r="C408">
+        <v>103.8205299571668</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>45698.28263888889</v>
+      </c>
+      <c r="B409">
+        <v>11.97096856588392</v>
+      </c>
+      <c r="C409">
+        <v>91.27354695724863</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>45698.28333333333</v>
+      </c>
+      <c r="B410">
+        <v>11.70001860622492</v>
+      </c>
+      <c r="C410">
+        <v>108.3340567936878</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>45698.28402777778</v>
+      </c>
+      <c r="B411">
+        <v>18.95321124230578</v>
+      </c>
+      <c r="C411">
+        <v>96.77555041038522</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>45698.28472222222</v>
+      </c>
+      <c r="B412">
+        <v>28.70195850096145</v>
+      </c>
+      <c r="C412">
+        <v>103.5960699321568</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2">
+        <v>45698.28541666667</v>
+      </c>
+      <c r="B413">
+        <v>23.46788932493157</v>
+      </c>
+      <c r="C413">
+        <v>108.1696201271539</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2">
+        <v>45698.28611111111</v>
+      </c>
+      <c r="B414">
+        <v>20.26831481498403</v>
+      </c>
+      <c r="C414">
+        <v>67.05471073448732</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2">
+        <v>45698.28680555556</v>
+      </c>
+      <c r="B415">
+        <v>15.93582932827089</v>
+      </c>
+      <c r="C415">
+        <v>98.52782201671899</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2">
+        <v>45698.2875</v>
+      </c>
+      <c r="B416">
+        <v>26.53401951324933</v>
+      </c>
+      <c r="C416">
+        <v>90.21302139778638</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2">
+        <v>45698.28819444445</v>
+      </c>
+      <c r="B417">
+        <v>19.27919531725721</v>
+      </c>
+      <c r="C417">
+        <v>103.7910350776525</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>45698.28888888889</v>
+      </c>
+      <c r="B418">
+        <v>13.99534574634831</v>
+      </c>
+      <c r="C418">
+        <v>106.6950032007152</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2">
+        <v>45698.28958333333</v>
+      </c>
+      <c r="B419">
+        <v>17.2791346642814</v>
+      </c>
+      <c r="C419">
+        <v>80.98896303764192</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>45698.29027777778</v>
+      </c>
+      <c r="B420">
+        <v>19.77533690349508</v>
+      </c>
+      <c r="C420">
+        <v>91.06350646408229</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>45698.29097222222</v>
+      </c>
+      <c r="B421">
+        <v>24.28077028265382</v>
+      </c>
+      <c r="C421">
+        <v>84.49273473744869</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>45698.29166666666</v>
+      </c>
+      <c r="B422">
+        <v>20.61555963478722</v>
+      </c>
+      <c r="C422">
+        <v>67.66625968772087</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>45698.29236111111</v>
+      </c>
+      <c r="B423">
+        <v>25.65495939806945</v>
+      </c>
+      <c r="C423">
+        <v>112.7658882955821</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>45698.29305555556</v>
+      </c>
+      <c r="B424">
+        <v>16.4299958263388</v>
+      </c>
+      <c r="C424">
+        <v>97.76531075875174</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>45698.29375</v>
+      </c>
+      <c r="B425">
+        <v>16.21554608305297</v>
+      </c>
+      <c r="C425">
+        <v>122.8998377053585</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>45698.29444444444</v>
+      </c>
+      <c r="B426">
+        <v>23.86451941791639</v>
+      </c>
+      <c r="C426">
+        <v>135.8838505895235</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>45698.29513888889</v>
+      </c>
+      <c r="B427">
+        <v>15.91871456900491</v>
+      </c>
+      <c r="C427">
+        <v>85.78292290187433</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>45698.29583333333</v>
+      </c>
+      <c r="B428">
+        <v>21.79333082773078</v>
+      </c>
+      <c r="C428">
+        <v>121.7407195551817</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>45698.29652777778</v>
+      </c>
+      <c r="B429">
+        <v>14.4792787638863</v>
+      </c>
+      <c r="C429">
+        <v>94.9532150283203</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>45698.29722222222</v>
+      </c>
+      <c r="B430">
+        <v>12.46679002699807</v>
+      </c>
+      <c r="C430">
+        <v>76.48964123117483</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>45698.29791666667</v>
+      </c>
+      <c r="B431">
+        <v>19.74707260154711</v>
+      </c>
+      <c r="C431">
+        <v>108.7229173444578</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>45698.29861111111</v>
+      </c>
+      <c r="B432">
+        <v>18.88203548832081</v>
+      </c>
+      <c r="C432">
+        <v>119.2828067212414</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2">
+        <v>45698.29930555556</v>
+      </c>
+      <c r="B433">
+        <v>21.75799965649205</v>
+      </c>
+      <c r="C433">
+        <v>101.468271189843</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2">
+        <v>45698.3</v>
+      </c>
+      <c r="B434">
+        <v>18.3624013967931</v>
+      </c>
+      <c r="C434">
+        <v>106.3523878631717</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2">
+        <v>45698.30069444444</v>
+      </c>
+      <c r="B435">
+        <v>21.90743731499011</v>
+      </c>
+      <c r="C435">
+        <v>60.89824127477083</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>45698.30138888889</v>
+      </c>
+      <c r="B436">
+        <v>24.27742844068332</v>
+      </c>
+      <c r="C436">
+        <v>69.1030153215651</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>45698.30208333334</v>
+      </c>
+      <c r="B437">
+        <v>19.87801922336543</v>
+      </c>
+      <c r="C437">
+        <v>96.24945567136359</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>45698.30277777778</v>
+      </c>
+      <c r="B438">
+        <v>18.66914441932732</v>
+      </c>
+      <c r="C438">
+        <v>81.57723871972586</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>45698.30347222222</v>
+      </c>
+      <c r="B439">
+        <v>16.46407145956631</v>
+      </c>
+      <c r="C439">
+        <v>97.84122276281994</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>45698.30416666667</v>
+      </c>
+      <c r="B440">
+        <v>16.98411478744193</v>
+      </c>
+      <c r="C440">
+        <v>63.00549951794552</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>45698.30486111111</v>
+      </c>
+      <c r="B441">
+        <v>26.73319702431873</v>
+      </c>
+      <c r="C441">
+        <v>69.0363966647183</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>45698.30555555555</v>
+      </c>
+      <c r="B442">
+        <v>26.20126468898886</v>
+      </c>
+      <c r="C442">
+        <v>77.25173569680574</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>45698.30625</v>
+      </c>
+      <c r="B443">
+        <v>31.63774710995541</v>
+      </c>
+      <c r="C443">
+        <v>118.0877014157036</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>45698.30694444444</v>
+      </c>
+      <c r="B444">
+        <v>22.85700234517081</v>
+      </c>
+      <c r="C444">
+        <v>90.48148057272188</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>45698.30763888889</v>
+      </c>
+      <c r="B445">
+        <v>21.88311587790148</v>
+      </c>
+      <c r="C445">
+        <v>102.2624576018248</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>45698.30833333333</v>
+      </c>
+      <c r="B446">
+        <v>22.13601889012313</v>
+      </c>
+      <c r="C446">
+        <v>122.1923027872675</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>45698.30902777778</v>
+      </c>
+      <c r="B447">
+        <v>21.64715513800932</v>
+      </c>
+      <c r="C447">
+        <v>117.1548594495687</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>45698.30972222222</v>
+      </c>
+      <c r="B448">
+        <v>23.30463568536278</v>
+      </c>
+      <c r="C448">
+        <v>99.97819863503832</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>45698.31041666667</v>
+      </c>
+      <c r="B449">
+        <v>7.594466871407132</v>
+      </c>
+      <c r="C449">
+        <v>97.80524795579136</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>45698.31111111111</v>
+      </c>
+      <c r="B450">
+        <v>25.71874071162063</v>
+      </c>
+      <c r="C450">
+        <v>82.87232307289351</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>45698.31180555555</v>
+      </c>
+      <c r="B451">
+        <v>30.65918690329377</v>
+      </c>
+      <c r="C451">
+        <v>99.62202888772801</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>45698.3125</v>
+      </c>
+      <c r="B452">
+        <v>27.08186308888311</v>
+      </c>
+      <c r="C452">
+        <v>109.3102438819854</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>45698.31319444445</v>
+      </c>
+      <c r="B453">
+        <v>19.5688246272111</v>
+      </c>
+      <c r="C453">
+        <v>76.66427433958287</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>45698.31388888889</v>
+      </c>
+      <c r="B454">
+        <v>32.24331475411088</v>
+      </c>
+      <c r="C454">
+        <v>97.88170025916455</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>45698.31458333333</v>
+      </c>
+      <c r="B455">
+        <v>17.76002771396254</v>
+      </c>
+      <c r="C455">
+        <v>119.0934449352078</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>45698.31527777778</v>
+      </c>
+      <c r="B456">
+        <v>30.9457155936721</v>
+      </c>
+      <c r="C456">
+        <v>95.67656307241286</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>45698.31597222222</v>
+      </c>
+      <c r="B457">
+        <v>22.07611733579503</v>
+      </c>
+      <c r="C457">
+        <v>127.3926718217103</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>45698.31666666667</v>
+      </c>
+      <c r="B458">
+        <v>13.29218737708377</v>
+      </c>
+      <c r="C458">
+        <v>70.52079786772262</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>45698.31736111111</v>
+      </c>
+      <c r="B459">
+        <v>13.63456209926581</v>
+      </c>
+      <c r="C459">
+        <v>101.5462245296542</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>45698.31805555556</v>
+      </c>
+      <c r="B460">
+        <v>20.3414301744494</v>
+      </c>
+      <c r="C460">
+        <v>87.26727266292383</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>45698.31875</v>
+      </c>
+      <c r="B461">
+        <v>21.58351236556511</v>
+      </c>
+      <c r="C461">
+        <v>80.93739087415332</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>45698.31944444445</v>
+      </c>
+      <c r="B462">
+        <v>16.57226279330128</v>
+      </c>
+      <c r="C462">
+        <v>60.02948063784779</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>45698.32013888889</v>
+      </c>
+      <c r="B463">
+        <v>22.4266108644236</v>
+      </c>
+      <c r="C463">
+        <v>88.72338484314673</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>45698.32083333333</v>
+      </c>
+      <c r="B464">
+        <v>14.98398894419532</v>
+      </c>
+      <c r="C464">
+        <v>88.50088221545906</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>45698.32152777778</v>
+      </c>
+      <c r="B465">
+        <v>21.97759570758634</v>
+      </c>
+      <c r="C465">
+        <v>75.36597286691928</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2">
+        <v>45698.32222222222</v>
+      </c>
+      <c r="B466">
+        <v>12.98633000638957</v>
+      </c>
+      <c r="C466">
+        <v>100.9902542253953</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2">
+        <v>45698.32291666666</v>
+      </c>
+      <c r="B467">
+        <v>26.58787408654394</v>
+      </c>
+      <c r="C467">
+        <v>104.0592510921419</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2">
+        <v>45698.32361111111</v>
+      </c>
+      <c r="B468">
+        <v>19.64339521798141</v>
+      </c>
+      <c r="C468">
+        <v>141.5039611728855</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2">
+        <v>45698.32430555556</v>
+      </c>
+      <c r="B469">
+        <v>16.97300948539306</v>
+      </c>
+      <c r="C469">
+        <v>123.8665288260022</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2">
+        <v>45698.325</v>
+      </c>
+      <c r="B470">
+        <v>13.93261974697011</v>
+      </c>
+      <c r="C470">
+        <v>86.45860717460036</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2">
+        <v>45698.32569444444</v>
+      </c>
+      <c r="B471">
+        <v>19.398424418752</v>
+      </c>
+      <c r="C471">
+        <v>86.55969058902379</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2">
+        <v>45698.32638888889</v>
+      </c>
+      <c r="B472">
+        <v>28.21729370408064</v>
+      </c>
+      <c r="C472">
+        <v>109.4285350337362</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2">
+        <v>45698.32708333333</v>
+      </c>
+      <c r="B473">
+        <v>20.42475689953196</v>
+      </c>
+      <c r="C473">
+        <v>84.64552272780912</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2">
+        <v>45698.32777777778</v>
+      </c>
+      <c r="B474">
+        <v>16.01248052897428</v>
+      </c>
+      <c r="C474">
+        <v>73.56857224511486</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>45698.32847222222</v>
+      </c>
+      <c r="B475">
+        <v>13.32567854605333</v>
+      </c>
+      <c r="C475">
+        <v>114.6072403383761</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>45698.32916666667</v>
+      </c>
+      <c r="B476">
+        <v>17.88065102059512</v>
+      </c>
+      <c r="C476">
+        <v>65.53127250715977</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>45698.32986111111</v>
+      </c>
+      <c r="B477">
+        <v>28.64345218206715</v>
+      </c>
+      <c r="C477">
+        <v>110.1776744541347</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
+        <v>45698.33055555556</v>
+      </c>
+      <c r="B478">
+        <v>19.93885210635363</v>
+      </c>
+      <c r="C478">
+        <v>109.4477060774516</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>45698.33125</v>
+      </c>
+      <c r="B479">
+        <v>18.71469986260212</v>
+      </c>
+      <c r="C479">
+        <v>73.10438848786347</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="2">
+        <v>45698.33194444444</v>
+      </c>
+      <c r="B480">
+        <v>26.37025333375347</v>
+      </c>
+      <c r="C480">
+        <v>93.29374816673294</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="2">
+        <v>45698.33263888889</v>
+      </c>
+      <c r="B481">
+        <v>23.12612541561658</v>
+      </c>
+      <c r="C481">
+        <v>102.8496130463507</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>45698.33333333334</v>
+      </c>
+      <c r="B482">
+        <v>23.26127819177816</v>
+      </c>
+      <c r="C482">
+        <v>133.4531704697566</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="2">
+        <v>45698.33402777778</v>
+      </c>
+      <c r="B483">
+        <v>17.99815502237296</v>
+      </c>
+      <c r="C483">
+        <v>118.1770776213024</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="2">
+        <v>45698.33472222222</v>
+      </c>
+      <c r="B484">
+        <v>24.40284897525192</v>
+      </c>
+      <c r="C484">
+        <v>78.92578387423791</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="2">
+        <v>45698.33541666667</v>
+      </c>
+      <c r="B485">
+        <v>10.60783616509092</v>
+      </c>
+      <c r="C485">
+        <v>97.04240630101869</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="2">
+        <v>45698.33611111111</v>
+      </c>
+      <c r="B486">
+        <v>19.93061417612865</v>
+      </c>
+      <c r="C486">
+        <v>116.3546925904778</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="2">
+        <v>45698.33680555555</v>
+      </c>
+      <c r="B487">
+        <v>17.06356792892725</v>
+      </c>
+      <c r="C487">
+        <v>84.03381074063061</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="2">
+        <v>45698.3375</v>
+      </c>
+      <c r="B488">
+        <v>14.51152057666268</v>
+      </c>
+      <c r="C488">
+        <v>92.24269020317415</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="2">
+        <v>45698.33819444444</v>
+      </c>
+      <c r="B489">
+        <v>18.21616787046021</v>
+      </c>
+      <c r="C489">
+        <v>89.82403194758062</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="2">
+        <v>45698.33888888889</v>
+      </c>
+      <c r="B490">
+        <v>12.5554533548183</v>
+      </c>
+      <c r="C490">
+        <v>95.1738465112204</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="2">
+        <v>45698.33958333333</v>
+      </c>
+      <c r="B491">
+        <v>24.19507764488159</v>
+      </c>
+      <c r="C491">
+        <v>97.85708121100146</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="2">
+        <v>45698.34027777778</v>
+      </c>
+      <c r="B492">
+        <v>21.67759388164629</v>
+      </c>
+      <c r="C492">
+        <v>71.29856586897631</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="2">
+        <v>45698.34097222222</v>
+      </c>
+      <c r="B493">
+        <v>18.45221898237197</v>
+      </c>
+      <c r="C493">
+        <v>102.3262147147365</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="2">
+        <v>45698.34166666667</v>
+      </c>
+      <c r="B494">
+        <v>25.03006152624842</v>
+      </c>
+      <c r="C494">
+        <v>95.1313668306297</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="2">
+        <v>45698.34236111111</v>
+      </c>
+      <c r="B495">
+        <v>26.49363632795782</v>
+      </c>
+      <c r="C495">
+        <v>84.90416684606991</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="2">
+        <v>45698.34305555555</v>
+      </c>
+      <c r="B496">
+        <v>17.52086841279682</v>
+      </c>
+      <c r="C496">
+        <v>105.7831643875878</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="2">
+        <v>45698.34375</v>
+      </c>
+      <c r="B497">
+        <v>14.38572953576094</v>
+      </c>
+      <c r="C497">
+        <v>84.2729706192444</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="2">
+        <v>45698.34444444445</v>
+      </c>
+      <c r="B498">
+        <v>12.40383365503893</v>
+      </c>
+      <c r="C498">
+        <v>109.6681932515244</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="2">
+        <v>45698.34513888889</v>
+      </c>
+      <c r="B499">
+        <v>12.87991172056952</v>
+      </c>
+      <c r="C499">
+        <v>109.5095724629833</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="2">
+        <v>45698.34583333333</v>
+      </c>
+      <c r="B500">
+        <v>25.07236538745832</v>
+      </c>
+      <c r="C500">
+        <v>91.4970318220051</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="2">
+        <v>45698.34652777778</v>
+      </c>
+      <c r="B501">
+        <v>24.87993725609559</v>
+      </c>
+      <c r="C501">
+        <v>142.8246301983101</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="2">
+        <v>45698.34722222222</v>
+      </c>
+      <c r="B502">
+        <v>18.88405788150482</v>
+      </c>
+      <c r="C502">
+        <v>83.95527575764729</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="2">
+        <v>45698.34791666667</v>
+      </c>
+      <c r="B503">
+        <v>15.62915357593852</v>
+      </c>
+      <c r="C503">
+        <v>109.6521098057108</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="2">
+        <v>45698.34861111111</v>
+      </c>
+      <c r="B504">
+        <v>21.29706131467729</v>
+      </c>
+      <c r="C504">
+        <v>100.765924148515</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="2">
+        <v>45698.34930555556</v>
+      </c>
+      <c r="B505">
+        <v>9.957823515265806</v>
+      </c>
+      <c r="C505">
+        <v>97.91003510496125</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="2">
+        <v>45698.35</v>
+      </c>
+      <c r="B506">
+        <v>15.35940664436572</v>
+      </c>
+      <c r="C506">
+        <v>124.3986045806781</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="2">
+        <v>45698.35069444445</v>
+      </c>
+      <c r="B507">
+        <v>14.03208589853385</v>
+      </c>
+      <c r="C507">
+        <v>105.9612156722726</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="2">
+        <v>45698.35138888889</v>
+      </c>
+      <c r="B508">
+        <v>24.0234242251123</v>
+      </c>
+      <c r="C508">
+        <v>109.7696861533395</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="2">
+        <v>45698.35208333333</v>
+      </c>
+      <c r="B509">
+        <v>15.03658732367919</v>
+      </c>
+      <c r="C509">
+        <v>106.1504633129274</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="2">
+        <v>45698.35277777778</v>
+      </c>
+      <c r="B510">
+        <v>10.30250250349995</v>
+      </c>
+      <c r="C510">
+        <v>74.96467484137705</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="2">
+        <v>45698.35347222222</v>
+      </c>
+      <c r="B511">
+        <v>16.51156474345256</v>
+      </c>
+      <c r="C511">
+        <v>123.8329397256362</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="2">
+        <v>45698.35416666666</v>
+      </c>
+      <c r="B512">
+        <v>17.91535425678806</v>
+      </c>
+      <c r="C512">
+        <v>87.03295317013206</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="2">
+        <v>45698.35486111111</v>
+      </c>
+      <c r="B513">
+        <v>18.94665079515163</v>
+      </c>
+      <c r="C513">
+        <v>102.0733627759006</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="2">
+        <v>45698.35555555556</v>
+      </c>
+      <c r="B514">
+        <v>17.0197461479548</v>
+      </c>
+      <c r="C514">
+        <v>92.36715378919784</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="2">
+        <v>45698.35625</v>
+      </c>
+      <c r="B515">
+        <v>20.78950952273834</v>
+      </c>
+      <c r="C515">
+        <v>57.03995271268</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="2">
+        <v>45698.35694444444</v>
+      </c>
+      <c r="B516">
+        <v>10.69855290005749</v>
+      </c>
+      <c r="C516">
+        <v>126.6258477489731</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="2">
+        <v>45698.35763888889</v>
+      </c>
+      <c r="B517">
+        <v>19.3070643353297</v>
+      </c>
+      <c r="C517">
+        <v>70.78317199478445</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="2">
+        <v>45698.35833333333</v>
+      </c>
+      <c r="B518">
+        <v>22.72379770558105</v>
+      </c>
+      <c r="C518">
+        <v>112.404681272758</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="2">
+        <v>45698.35902777778</v>
+      </c>
+      <c r="B519">
+        <v>15.41455742321452</v>
+      </c>
+      <c r="C519">
+        <v>129.1681787327023</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="2">
+        <v>45698.35972222222</v>
+      </c>
+      <c r="B520">
+        <v>11.07176246847678</v>
+      </c>
+      <c r="C520">
+        <v>107.2611633795765</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2">
+        <v>45698.36041666667</v>
+      </c>
+      <c r="B521">
+        <v>20.09824877462717</v>
+      </c>
+      <c r="C521">
+        <v>107.0249881720209</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2">
+        <v>45698.36111111111</v>
+      </c>
+      <c r="B522">
+        <v>19.46889464976979</v>
+      </c>
+      <c r="C522">
+        <v>110.6499741984061</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2">
+        <v>45698.36180555556</v>
+      </c>
+      <c r="B523">
+        <v>21.13779824336242</v>
+      </c>
+      <c r="C523">
+        <v>140.4536004402366</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2">
+        <v>45698.3625</v>
+      </c>
+      <c r="B524">
+        <v>19.71826084757224</v>
+      </c>
+      <c r="C524">
+        <v>117.9999260260919</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="2">
+        <v>45698.36319444444</v>
+      </c>
+      <c r="B525">
+        <v>11.13273801139124</v>
+      </c>
+      <c r="C525">
+        <v>93.52381123783803</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2">
+        <v>45698.36388888889</v>
+      </c>
+      <c r="B526">
+        <v>27.65685318930398</v>
+      </c>
+      <c r="C526">
+        <v>112.9400203832975</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2">
+        <v>45698.36458333334</v>
+      </c>
+      <c r="B527">
+        <v>22.22818299559861</v>
+      </c>
+      <c r="C527">
+        <v>98.78005250199651</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2">
+        <v>45698.36527777778</v>
+      </c>
+      <c r="B528">
+        <v>20.71671852998533</v>
+      </c>
+      <c r="C528">
+        <v>124.0631388822987</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2">
+        <v>45698.36597222222</v>
+      </c>
+      <c r="B529">
+        <v>24.00287875074385</v>
+      </c>
+      <c r="C529">
+        <v>112.2134877717535</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="2">
+        <v>45698.36666666667</v>
+      </c>
+      <c r="B530">
+        <v>25.94745175859016</v>
+      </c>
+      <c r="C530">
+        <v>82.30804093700982</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2">
+        <v>45698.36736111111</v>
+      </c>
+      <c r="B531">
+        <v>15.20508284979147</v>
+      </c>
+      <c r="C531">
+        <v>94.82591613632097</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="2">
+        <v>45698.36805555555</v>
+      </c>
+      <c r="B532">
+        <v>21.31131070415832</v>
+      </c>
+      <c r="C532">
+        <v>100.4462621809469</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2">
+        <v>45698.36875</v>
+      </c>
+      <c r="B533">
+        <v>26.35100386123207</v>
+      </c>
+      <c r="C533">
+        <v>111.5712499506463</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="2">
+        <v>45698.36944444444</v>
+      </c>
+      <c r="B534">
+        <v>15.90653077013081</v>
+      </c>
+      <c r="C534">
+        <v>115.5547158728356</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="2">
+        <v>45698.37013888889</v>
+      </c>
+      <c r="B535">
+        <v>20.89999867919541</v>
+      </c>
+      <c r="C535">
+        <v>104.3575651360409</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="2">
+        <v>45698.37083333333</v>
+      </c>
+      <c r="B536">
+        <v>16.80959118298064</v>
+      </c>
+      <c r="C536">
+        <v>113.0454792462187</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="2">
+        <v>45698.37152777778</v>
+      </c>
+      <c r="B537">
+        <v>24.40939505021751</v>
+      </c>
+      <c r="C537">
+        <v>112.5190665907087</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="2">
+        <v>45698.37222222222</v>
+      </c>
+      <c r="B538">
+        <v>9.320628831115227</v>
+      </c>
+      <c r="C538">
+        <v>67.83081712478047</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="2">
+        <v>45698.37291666667</v>
+      </c>
+      <c r="B539">
+        <v>17.85171118014886</v>
+      </c>
+      <c r="C539">
+        <v>91.15636106701648</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="2">
+        <v>45698.37361111111</v>
+      </c>
+      <c r="B540">
+        <v>22.46863365654334</v>
+      </c>
+      <c r="C540">
+        <v>105.3929043646018</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="2">
+        <v>45698.37430555555</v>
+      </c>
+      <c r="B541">
+        <v>11.51537053282643</v>
+      </c>
+      <c r="C541">
+        <v>96.07103894889045</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="2">
+        <v>45698.375</v>
+      </c>
+      <c r="B542">
+        <v>7.913119891542859</v>
+      </c>
+      <c r="C542">
+        <v>110.9554474318752</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="2">
+        <v>45698.37569444445</v>
+      </c>
+      <c r="B543">
+        <v>17.13340417432651</v>
+      </c>
+      <c r="C543">
+        <v>79.64918887621897</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="2">
+        <v>45698.37638888889</v>
+      </c>
+      <c r="B544">
+        <v>21.33293702641115</v>
+      </c>
+      <c r="C544">
+        <v>73.24216983814286</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="2">
+        <v>45698.37708333333</v>
+      </c>
+      <c r="B545">
+        <v>21.16305696277662</v>
+      </c>
+      <c r="C545">
+        <v>109.6552631902985</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="2">
+        <v>45698.37777777778</v>
+      </c>
+      <c r="B546">
+        <v>23.75541995871519</v>
+      </c>
+      <c r="C546">
+        <v>100.3769950997715</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="2">
+        <v>45698.37847222222</v>
+      </c>
+      <c r="B547">
+        <v>18.88686262525436</v>
+      </c>
+      <c r="C547">
+        <v>104.1959260430096</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" s="2">
+        <v>45698.37916666667</v>
+      </c>
+      <c r="B548">
+        <v>18.39280887320353</v>
+      </c>
+      <c r="C548">
+        <v>135.0720620779019</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" s="2">
+        <v>45698.37986111111</v>
+      </c>
+      <c r="B549">
+        <v>25.18642333663239</v>
+      </c>
+      <c r="C549">
+        <v>112.8689350750655</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" s="2">
+        <v>45698.38055555556</v>
+      </c>
+      <c r="B550">
+        <v>19.20633949727042</v>
+      </c>
+      <c r="C550">
+        <v>96.46213815537507</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="2">
+        <v>45698.38125</v>
+      </c>
+      <c r="B551">
+        <v>19.84508486656291</v>
+      </c>
+      <c r="C551">
+        <v>95.50430551253213</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" s="2">
+        <v>45698.38194444445</v>
+      </c>
+      <c r="B552">
+        <v>22.16728530918514</v>
+      </c>
+      <c r="C552">
+        <v>83.11029240196464</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="2">
+        <v>45698.38263888889</v>
+      </c>
+      <c r="B553">
+        <v>25.0737343655546</v>
+      </c>
+      <c r="C553">
+        <v>102.7334113930624</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="2">
+        <v>45698.38333333333</v>
+      </c>
+      <c r="B554">
+        <v>19.06263540240507</v>
+      </c>
+      <c r="C554">
+        <v>118.1131749437523</v>
       </c>
     </row>
   </sheetData>
